--- a/cv_data/cv_zmm.xlsx
+++ b/cv_data/cv_zmm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecc85ccb002dd88c/Resumes/Git-Hub/Website/zacharymilosmoore/info/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{78EC4A55-FA9F-4B6D-A86F-CA30148AC2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F4C0E38-F82B-437F-A62C-CF483B2F6B4D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CB44A4F-E1F1-4138-AC98-038A281BC4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
+    <workbookView xWindow="29715" yWindow="4575" windowWidth="12300" windowHeight="6330" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="649">
   <si>
     <t>Category</t>
   </si>
@@ -2004,34 +2004,13 @@
     <t xml:space="preserve">Awarded in competition of 10 undergraduate students for poster presentation on connecting life history traits and community dynamics. </t>
   </si>
   <si>
-    <t>Music Notation Guide</t>
-  </si>
-  <si>
-    <t>Personal</t>
-  </si>
-  <si>
-    <t>Volunteer</t>
-  </si>
-  <si>
-    <t>Organizational Database</t>
-  </si>
-  <si>
-    <t>Swim, Drink, Fish</t>
-  </si>
-  <si>
-    <t>SDF</t>
-  </si>
-  <si>
-    <t>CV with Mail Merge Template</t>
-  </si>
-  <si>
-    <t>Weather and Algal Bloom Analysis</t>
-  </si>
-  <si>
-    <t>Forecasting impacts of recreation with Google Trends</t>
-  </si>
-  <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Organization.Link</t>
+  </si>
+  <si>
+    <t>www.umanitoba.ca</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2340,128 +2319,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Tw Cen MT"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
+  <dxfs count="73">
     <dxf>
       <font>
         <strike val="0"/>
@@ -3193,6 +3059,90 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3515,6 +3465,26 @@
     <dxf>
       <font>
         <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3623,6 +3593,34 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3637,96 +3635,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="CV" displayName="CV" ref="A1:X74" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
-  <autoFilter ref="A1:X74" xr:uid="{51C5574A-10F4-4984-BAF7-4488D8AC8419}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Project"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X74">
-    <sortCondition ref="C1:C74" customList="Education,Employment,Volunteering,Project,Event,Accreditation,Certificate,Award"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="CV" displayName="CV" ref="A1:Y69" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+  <autoFilter ref="A1:Y69" xr:uid="{51C5574A-10F4-4984-BAF7-4488D8AC8419}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X69">
+    <sortCondition descending="1" ref="A2:A69"/>
+    <sortCondition ref="C2:C69" customList="Education,Employment,Volunteering,Project,Event,Accreditation,Certificate,Award"/>
+    <sortCondition descending="1" ref="J2:J69"/>
   </sortState>
-  <tableColumns count="24">
-    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="68"/>
-    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="67"/>
-    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="63"/>
-    <tableColumn id="23" xr3:uid="{3D32F3CF-4DBF-4264-B4F9-DA378A792305}" name="Link" dataDxfId="0"/>
-    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Pos_Acr" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="59">
+  <tableColumns count="25">
+    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="66"/>
+    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="64"/>
+    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="62"/>
+    <tableColumn id="24" xr3:uid="{2E4ADD2D-C302-4284-95AA-617479194CFD}" name="Organization.Link" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Pos_Acr" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="55">
       <calculatedColumnFormula>MONTH(CV[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="58">
+    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="54">
       <calculatedColumnFormula>YEAR(CV[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="57">
+    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="53">
       <calculatedColumnFormula>MONTH(CV[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="56">
+    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="52">
       <calculatedColumnFormula>YEAR(CV[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="55">
+    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="51">
       <calculatedColumnFormula>IF((Q2="Days"),((K2-J2+1)),IF(Q2="Months",((K2-J2)/30),((K2-J2)/365)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="54"/>
-    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="53"/>
-    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="52"/>
-    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="51"/>
-    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="50"/>
-    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="49"/>
-    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="48"/>
-    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="50"/>
+    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="49"/>
+    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="47"/>
+    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="46"/>
+    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="45"/>
+    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="43"/>
+    <tableColumn id="23" xr3:uid="{4C96C715-152C-4914-BB38-FEFF25E58297}" name="Link" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B570B70E-C899-455A-AC26-A13A5D4A9E92}" name="Applications" displayName="Applications" ref="A1:N49" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B570B70E-C899-455A-AC26-A13A5D4A9E92}" name="Applications" displayName="Applications" ref="A1:N49" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:N49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="12" xr3:uid="{218087FE-17C0-423E-B6F8-901859622287}" name="Stage" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{D9613474-92D2-4050-ACF2-B118452426A7}" name="Period" dataDxfId="43"/>
-    <tableColumn id="1" xr3:uid="{5BAA014C-1241-4434-8AD7-745DA50962BB}" name="Application.Date" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{983FF83C-F5E6-4F96-A5C4-E0DE49B59CF1}" name="Closing.Date" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{B6DA3B76-2EA9-477C-916B-C85ABE14EDEA}" name="Organization" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{F810C504-FE42-4544-B62D-AD9215CC2056}" name="Role" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{9092FFA8-86C9-4C39-B086-D49B5605E883}" name="Location" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{82ADB252-CBD3-45E3-93DC-F3E245711EE6}" name="Length" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{D67F4400-95EC-4574-AC0A-5E80B43AE8EA}" name="Pay" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{61429A75-040E-4A75-9265-393C74FD1D63}" name="Contact" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{7F27D872-9FAA-49C7-AD85-D69344560AD6}" name="Title" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{F6EC3991-C4AE-4478-9730-0BDA10018440}" name="Contact.Information" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{64723C84-D17F-4973-A41F-D234D9E037AB}" name="Format" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{C898DE17-6DCD-4913-9793-AC56DC7DDFBB}" name="Notes" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{218087FE-17C0-423E-B6F8-901859622287}" name="Stage" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{D9613474-92D2-4050-ACF2-B118452426A7}" name="Period" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{5BAA014C-1241-4434-8AD7-745DA50962BB}" name="Application.Date" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{983FF83C-F5E6-4F96-A5C4-E0DE49B59CF1}" name="Closing.Date" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{B6DA3B76-2EA9-477C-916B-C85ABE14EDEA}" name="Organization" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{F810C504-FE42-4544-B62D-AD9215CC2056}" name="Role" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{9092FFA8-86C9-4C39-B086-D49B5605E883}" name="Location" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{82ADB252-CBD3-45E3-93DC-F3E245711EE6}" name="Length" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{D67F4400-95EC-4574-AC0A-5E80B43AE8EA}" name="Pay" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{61429A75-040E-4A75-9265-393C74FD1D63}" name="Contact" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{7F27D872-9FAA-49C7-AD85-D69344560AD6}" name="Title" dataDxfId="20"/>
+    <tableColumn id="14" xr3:uid="{F6EC3991-C4AE-4478-9730-0BDA10018440}" name="Contact.Information" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{64723C84-D17F-4973-A41F-D234D9E037AB}" name="Format" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{C898DE17-6DCD-4913-9793-AC56DC7DDFBB}" name="Notes" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="Lists" displayName="Lists" ref="A1:L10" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="Lists" displayName="Lists" ref="A1:L10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <autoFilter ref="A1:L10" xr:uid="{F02DA2C5-59F4-4989-BB36-1611149FB962}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditation" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Award" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certificate" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Event" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Membership" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Project" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="15"/>
-    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditation" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Award" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certificate" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Event" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Membership" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Project" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4046,41 +4041,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6961E3D5-6E55-490E-8BC2-FDE92C6153D9}">
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="23.33203125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="22.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="6" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11" style="1" customWidth="1"/>
     <col min="16" max="16" width="5.33203125" style="7" customWidth="1"/>
     <col min="17" max="17" width="13.6640625" style="1" customWidth="1"/>
     <col min="18" max="18" width="14.6640625" style="45" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="40.6640625" style="7" customWidth="1"/>
     <col min="23" max="24" width="40.6640625" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="8.6640625" style="2" hidden="1"/>
+    <col min="25" max="25" width="16.88671875" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>488</v>
       </c>
@@ -4096,14 +4092,14 @@
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>655</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>25</v>
@@ -4153,8 +4149,11 @@
       <c r="X1" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y1" s="8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>489</v>
       </c>
@@ -4170,13 +4169,15 @@
       <c r="E2" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="51" t="s">
+        <v>648</v>
+      </c>
+      <c r="G2" s="41" t="s">
         <v>452</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="H2" s="40" t="s">
         <v>454</v>
       </c>
-      <c r="H2" s="40"/>
       <c r="I2" s="41" t="s">
         <v>455</v>
       </c>
@@ -4224,8 +4225,9 @@
         <v>513</v>
       </c>
       <c r="X2" s="39"/>
-    </row>
-    <row r="3" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y2" s="39"/>
+    </row>
+    <row r="3" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>489</v>
       </c>
@@ -4241,13 +4243,13 @@
       <c r="E3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="H3" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="H3" s="40"/>
       <c r="I3" s="41" t="s">
         <v>19</v>
       </c>
@@ -4295,8 +4297,9 @@
       <c r="V3" s="39"/>
       <c r="W3" s="39"/>
       <c r="X3" s="39"/>
-    </row>
-    <row r="4" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y3" s="39"/>
+    </row>
+    <row r="4" spans="1:25" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>489</v>
       </c>
@@ -4312,13 +4315,13 @@
       <c r="E4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="H4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="40"/>
       <c r="I4" s="41" t="s">
         <v>23</v>
       </c>
@@ -4370,118 +4373,128 @@
         <v>511</v>
       </c>
       <c r="X4" s="39"/>
-    </row>
-    <row r="5" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="39"/>
+    </row>
+    <row r="5" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>553</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="40" t="s">
-        <v>554</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="47">
-        <v>44094</v>
+        <v>586</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41" t="s">
+        <v>628</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>629</v>
+      </c>
+      <c r="J5" s="48">
+        <v>44207</v>
       </c>
       <c r="K5" s="47">
-        <v>44094</v>
+        <v>44316</v>
       </c>
       <c r="L5" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M5" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="N5" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O5" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P5" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3.6333333333333333</v>
       </c>
       <c r="Q5" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="S5" s="39"/>
+        <v>630</v>
+      </c>
+      <c r="S5" s="39" t="s">
+        <v>89</v>
+      </c>
       <c r="T5" s="39"/>
       <c r="U5" s="39"/>
       <c r="V5" s="39"/>
       <c r="W5" s="39"/>
       <c r="X5" s="39"/>
-    </row>
-    <row r="6" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y5" s="39"/>
+    </row>
+    <row r="6" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>5</v>
+        <v>160</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>33</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>379</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="40" t="s">
-        <v>351</v>
-      </c>
-      <c r="H6" s="40"/>
+        <v>47</v>
+      </c>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>461</v>
+      </c>
       <c r="I6" s="41"/>
       <c r="J6" s="47">
-        <v>43764</v>
+        <v>44014</v>
       </c>
       <c r="K6" s="47">
-        <v>43764</v>
+        <v>44074</v>
       </c>
       <c r="L6" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M6" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="N6" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O6" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="P6" s="42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R6" s="39" t="s">
         <v>58</v>
@@ -4490,119 +4503,127 @@
         <v>52</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="U6" s="39"/>
       <c r="V6" s="39"/>
       <c r="W6" s="39"/>
       <c r="X6" s="39"/>
-    </row>
-    <row r="7" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y6" s="39"/>
+    </row>
+    <row r="7" spans="1:25" ht="132" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="40"/>
+        <v>47</v>
+      </c>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>388</v>
+      </c>
       <c r="I7" s="41" t="s">
-        <v>141</v>
+        <v>357</v>
       </c>
       <c r="J7" s="47">
-        <v>43374</v>
+        <v>43586</v>
       </c>
       <c r="K7" s="47">
-        <v>43377</v>
+        <v>44012</v>
       </c>
       <c r="L7" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M7" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="N7" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O7" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="P7" s="42">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>14.2</v>
       </c>
       <c r="Q7" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R7" s="39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S7" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T7" s="39" t="s">
-        <v>543</v>
-      </c>
-      <c r="U7" s="39"/>
+        <v>349</v>
+      </c>
+      <c r="U7" s="39" t="s">
+        <v>348</v>
+      </c>
       <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-    </row>
-    <row r="8" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W7" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="X7" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y7" s="39"/>
+    </row>
+    <row r="8" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="40"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>182</v>
+      </c>
       <c r="I8" s="41"/>
       <c r="J8" s="47">
-        <v>42614</v>
+        <v>43405</v>
       </c>
       <c r="K8" s="47">
-        <v>42856</v>
+        <v>43586</v>
       </c>
       <c r="L8" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M8" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="N8" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
@@ -4610,224 +4631,248 @@
       </c>
       <c r="O8" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="P8" s="42">
         <f t="shared" si="0"/>
-        <v>8.0666666666666664</v>
+        <v>6.0333333333333332</v>
       </c>
       <c r="Q8" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R8" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S8" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T8" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="U8" s="39"/>
+      <c r="T8" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>537</v>
+      </c>
       <c r="V8" s="39"/>
       <c r="W8" s="39"/>
       <c r="X8" s="39"/>
-    </row>
-    <row r="9" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y8" s="39"/>
+    </row>
+    <row r="9" spans="1:25" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>504</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41" t="s">
-        <v>145</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="41"/>
       <c r="J9" s="47">
-        <v>42592</v>
+        <v>43282</v>
       </c>
       <c r="K9" s="47">
-        <v>42605</v>
+        <v>43344</v>
       </c>
       <c r="L9" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M9" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="N9" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="P9" s="42">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>2.0666666666666669</v>
       </c>
       <c r="Q9" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="S9" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
+      <c r="T9" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>390</v>
+      </c>
       <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
+      <c r="W9" s="39" t="s">
+        <v>585</v>
+      </c>
       <c r="X9" s="39"/>
-    </row>
-    <row r="10" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y9" s="39"/>
+    </row>
+    <row r="10" spans="1:25" ht="132" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="40"/>
+        <v>50</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="I10" s="41"/>
       <c r="J10" s="47">
-        <v>40603</v>
+        <v>43221</v>
       </c>
       <c r="K10" s="47">
-        <v>40616</v>
+        <v>43282</v>
       </c>
       <c r="L10" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M10" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="N10" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O10" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="P10" s="42">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>2.0333333333333332</v>
       </c>
       <c r="Q10" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R10" s="39" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="S10" s="39" t="s">
         <v>56</v>
       </c>
       <c r="T10" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
+        <v>526</v>
+      </c>
+      <c r="U10" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="V10" s="39" t="s">
+        <v>179</v>
+      </c>
       <c r="W10" s="39"/>
       <c r="X10" s="39"/>
-    </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y10" s="39"/>
+    </row>
+    <row r="11" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>5</v>
+        <v>103</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>33</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>353</v>
-      </c>
-      <c r="H11" s="40"/>
+        <v>68</v>
+      </c>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="I11" s="41"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="47"/>
+      <c r="J11" s="47">
+        <v>42979</v>
+      </c>
+      <c r="K11" s="47">
+        <v>43221</v>
+      </c>
       <c r="L11" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M11" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="N11" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O11" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>1900</v>
+        <v>2018</v>
       </c>
       <c r="P11" s="42">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="39"/>
+        <v>8.0666666666666664</v>
+      </c>
+      <c r="Q11" s="39" t="s">
+        <v>30</v>
+      </c>
       <c r="R11" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="S11" s="39"/>
-      <c r="T11" s="40" t="s">
-        <v>355</v>
-      </c>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
+        <v>57</v>
+      </c>
+      <c r="S11" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="U11" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="V11" s="39" t="s">
+        <v>466</v>
+      </c>
       <c r="W11" s="39"/>
       <c r="X11" s="39"/>
-    </row>
-    <row r="12" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y11" s="39"/>
+    </row>
+    <row r="12" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>33</v>
@@ -4836,60 +4881,65 @@
         <v>101</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>586</v>
-      </c>
-      <c r="F12" s="41" t="s">
-        <v>628</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41" t="s">
-        <v>629</v>
-      </c>
-      <c r="J12" s="48">
-        <v>44207</v>
+        <v>7</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="41"/>
+      <c r="J12" s="47">
+        <v>42644</v>
       </c>
       <c r="K12" s="47">
-        <v>44316</v>
+        <v>42887</v>
       </c>
       <c r="L12" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M12" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="N12" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O12" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="P12" s="42">
         <f t="shared" si="0"/>
-        <v>3.6333333333333333</v>
+        <v>8.1</v>
       </c>
       <c r="Q12" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R12" s="39" t="s">
-        <v>630</v>
+        <v>57</v>
       </c>
       <c r="S12" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
+        <v>56</v>
+      </c>
+      <c r="T12" s="39" t="s">
+        <v>515</v>
+      </c>
+      <c r="U12" s="39" t="s">
+        <v>516</v>
+      </c>
+      <c r="V12" s="39" t="s">
+        <v>517</v>
+      </c>
       <c r="W12" s="39"/>
       <c r="X12" s="39"/>
-    </row>
-    <row r="13" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y12" s="39"/>
+    </row>
+    <row r="13" spans="1:25" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>489</v>
       </c>
@@ -4903,65 +4953,72 @@
         <v>102</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="H13" s="40"/>
+        <v>7</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>503</v>
+      </c>
       <c r="I13" s="41"/>
       <c r="J13" s="47">
-        <v>44014</v>
+        <v>42125</v>
       </c>
       <c r="K13" s="47">
-        <v>44074</v>
+        <v>43101</v>
       </c>
       <c r="L13" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M13" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="N13" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O13" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="P13" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.6739726027397261</v>
       </c>
       <c r="Q13" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R13" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S13" s="39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T13" s="39" t="s">
-        <v>529</v>
-      </c>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
+        <v>500</v>
+      </c>
+      <c r="U13" s="39" t="s">
+        <v>501</v>
+      </c>
+      <c r="V13" s="39" t="s">
+        <v>499</v>
+      </c>
+      <c r="W13" s="39" t="s">
+        <v>502</v>
+      </c>
       <c r="X13" s="39"/>
-    </row>
-    <row r="14" spans="1:24" ht="132" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y13" s="39"/>
+    </row>
+    <row r="14" spans="1:25" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>33</v>
@@ -4970,68 +5027,67 @@
         <v>102</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41" t="s">
-        <v>357</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="41"/>
       <c r="J14" s="47">
-        <v>43586</v>
+        <v>41275</v>
       </c>
       <c r="K14" s="47">
-        <v>44012</v>
+        <v>42614</v>
       </c>
       <c r="L14" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M14" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="N14" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O14" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="P14" s="42">
         <f t="shared" si="0"/>
-        <v>14.2</v>
+        <v>3.6684931506849314</v>
       </c>
       <c r="Q14" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R14" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S14" s="39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T14" s="39" t="s">
-        <v>349</v>
+        <v>493</v>
       </c>
       <c r="U14" s="39" t="s">
-        <v>348</v>
+        <v>494</v>
       </c>
       <c r="V14" s="39"/>
       <c r="W14" s="39" t="s">
-        <v>181</v>
+        <v>495</v>
       </c>
       <c r="X14" s="39" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="Y14" s="39"/>
+    </row>
+    <row r="15" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>489</v>
       </c>
@@ -5045,1006 +5101,1029 @@
         <v>101</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="40"/>
+        <v>77</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="I15" s="41"/>
       <c r="J15" s="47">
-        <v>43405</v>
+        <v>39083</v>
       </c>
       <c r="K15" s="47">
-        <v>43586</v>
+        <v>40544</v>
       </c>
       <c r="L15" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M15" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="N15" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O15" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="P15" s="42">
         <f t="shared" si="0"/>
-        <v>6.0333333333333332</v>
+        <v>4.0027397260273974</v>
       </c>
       <c r="Q15" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R15" s="39" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="S15" s="39" t="s">
         <v>56</v>
       </c>
       <c r="T15" s="39" t="s">
-        <v>536</v>
+        <v>395</v>
       </c>
       <c r="U15" s="39" t="s">
-        <v>537</v>
-      </c>
-      <c r="V15" s="39"/>
+        <v>505</v>
+      </c>
+      <c r="V15" s="39" t="s">
+        <v>506</v>
+      </c>
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
-    </row>
-    <row r="16" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y15" s="39"/>
+    </row>
+    <row r="16" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="40"/>
+        <v>381</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>383</v>
+      </c>
       <c r="I16" s="41"/>
       <c r="J16" s="47">
-        <v>43282</v>
+        <v>43952</v>
       </c>
       <c r="K16" s="47">
-        <v>43344</v>
+        <v>43983</v>
       </c>
       <c r="L16" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M16" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="N16" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O16" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="P16" s="42">
         <f t="shared" si="0"/>
-        <v>2.0666666666666669</v>
+        <v>1.0333333333333334</v>
       </c>
       <c r="Q16" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R16" s="39" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S16" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T16" s="39" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="U16" s="39" t="s">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="V16" s="39"/>
       <c r="W16" s="39" t="s">
-        <v>585</v>
+        <v>387</v>
       </c>
       <c r="X16" s="39"/>
-    </row>
-    <row r="17" spans="1:24" ht="132" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y16" s="39"/>
+    </row>
+    <row r="17" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="40"/>
+        <v>373</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41" t="s">
+        <v>374</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>377</v>
+      </c>
       <c r="I17" s="41"/>
       <c r="J17" s="47">
-        <v>43221</v>
+        <v>43862</v>
       </c>
       <c r="K17" s="47">
-        <v>43282</v>
+        <f ca="1">NOW()</f>
+        <v>44452.574539583336</v>
       </c>
       <c r="L17" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M17" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="N17" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>7</v>
+        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="O17" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2018</v>
+        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="P17" s="42">
-        <f t="shared" si="0"/>
-        <v>2.0333333333333332</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19.685817986111214</v>
       </c>
       <c r="Q17" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R17" s="39" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="S17" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T17" s="39" t="s">
-        <v>526</v>
+        <v>443</v>
       </c>
       <c r="U17" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="V17" s="39" t="s">
-        <v>179</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="V17" s="39"/>
       <c r="W17" s="39"/>
       <c r="X17" s="39"/>
-    </row>
-    <row r="18" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y17" s="39"/>
+    </row>
+    <row r="18" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>101</v>
+        <v>402</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="40"/>
+        <v>375</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="H18" s="40" t="s">
+        <v>378</v>
+      </c>
       <c r="I18" s="41"/>
       <c r="J18" s="47">
-        <v>42979</v>
+        <v>43862</v>
       </c>
       <c r="K18" s="47">
-        <v>43221</v>
+        <v>43922</v>
       </c>
       <c r="L18" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M18" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="N18" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O18" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="P18" s="42">
         <f t="shared" si="0"/>
-        <v>8.0666666666666664</v>
+        <v>2</v>
       </c>
       <c r="Q18" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R18" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S18" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T18" s="39" t="s">
-        <v>464</v>
-      </c>
-      <c r="U18" s="39" t="s">
-        <v>465</v>
-      </c>
-      <c r="V18" s="39" t="s">
-        <v>466</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
-    </row>
-    <row r="19" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y18" s="39"/>
+    </row>
+    <row r="19" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
+        <v>91</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>94</v>
+      </c>
       <c r="J19" s="47">
-        <v>42644</v>
+        <v>43730</v>
       </c>
       <c r="K19" s="47">
-        <v>42887</v>
+        <v>43734</v>
       </c>
       <c r="L19" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M19" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="N19" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O19" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="P19" s="42">
         <f t="shared" si="0"/>
-        <v>8.1</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R19" s="39" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="S19" s="39" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="T19" s="39" t="s">
-        <v>515</v>
-      </c>
-      <c r="U19" s="39" t="s">
-        <v>516</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="U19" s="39"/>
       <c r="V19" s="39" t="s">
-        <v>517</v>
+        <v>380</v>
       </c>
       <c r="W19" s="39"/>
       <c r="X19" s="39"/>
-    </row>
-    <row r="20" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y19" s="39"/>
+    </row>
+    <row r="20" spans="1:25" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>102</v>
+        <v>403</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>503</v>
-      </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
+        <v>11</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>643</v>
+      </c>
       <c r="J20" s="47">
-        <v>42125</v>
+        <v>43729</v>
       </c>
       <c r="K20" s="47">
-        <v>43101</v>
+        <f ca="1">NOW()</f>
+        <v>44452.574539583336</v>
       </c>
       <c r="L20" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M20" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="N20" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>1</v>
+        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="O20" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2018</v>
+        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="P20" s="42">
-        <f t="shared" si="0"/>
-        <v>2.6739726027397261</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24.119151319444548</v>
       </c>
       <c r="Q20" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R20" s="39" t="s">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="S20" s="39" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="T20" s="39" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="U20" s="39" t="s">
-        <v>501</v>
-      </c>
-      <c r="V20" s="39" t="s">
-        <v>499</v>
-      </c>
-      <c r="W20" s="39" t="s">
-        <v>502</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
       <c r="X20" s="39"/>
-    </row>
-    <row r="21" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y20" s="39"/>
+    </row>
+    <row r="21" spans="1:25" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>102</v>
+        <v>402</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>29</v>
+      </c>
       <c r="J21" s="47">
-        <v>41275</v>
+        <v>43647</v>
       </c>
       <c r="K21" s="47">
-        <v>42614</v>
+        <v>43983</v>
       </c>
       <c r="L21" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M21" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="N21" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O21" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="P21" s="42">
         <f t="shared" si="0"/>
-        <v>3.6684931506849314</v>
+        <v>11.2</v>
       </c>
       <c r="Q21" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R21" s="39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S21" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T21" s="39" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="U21" s="39" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
       <c r="V21" s="39"/>
-      <c r="W21" s="39" t="s">
-        <v>495</v>
-      </c>
-      <c r="X21" s="39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+    </row>
+    <row r="22" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="40"/>
+        <v>34</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40" t="s">
+        <v>35</v>
+      </c>
       <c r="I22" s="41"/>
       <c r="J22" s="47">
-        <v>39083</v>
+        <v>43617</v>
       </c>
       <c r="K22" s="47">
-        <v>40544</v>
+        <v>43623</v>
       </c>
       <c r="L22" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M22" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="N22" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O22" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="P22" s="42">
         <f t="shared" si="0"/>
-        <v>4.0027397260273974</v>
+        <v>7</v>
       </c>
       <c r="Q22" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R22" s="39" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="S22" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="T22" s="39" t="s">
-        <v>395</v>
+        <v>522</v>
       </c>
       <c r="U22" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="V22" s="39" t="s">
-        <v>506</v>
-      </c>
-      <c r="W22" s="39"/>
+        <v>523</v>
+      </c>
+      <c r="V22" s="39"/>
+      <c r="W22" s="39" t="s">
+        <v>521</v>
+      </c>
       <c r="X22" s="39"/>
-    </row>
-    <row r="23" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y22" s="39"/>
+    </row>
+    <row r="23" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="H23" s="40"/>
+        <v>96</v>
+      </c>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>98</v>
+      </c>
       <c r="I23" s="41"/>
       <c r="J23" s="47">
-        <v>42979</v>
+        <v>43586</v>
       </c>
       <c r="K23" s="47">
-        <v>43221</v>
+        <v>43709</v>
       </c>
       <c r="L23" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M23" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="N23" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O23" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="P23" s="42">
         <f t="shared" si="0"/>
-        <v>8.0666666666666664</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q23" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R23" s="39" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="S23" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T23" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="U23" s="39"/>
+        <v>52</v>
+      </c>
+      <c r="T23" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="U23" s="39" t="s">
+        <v>525</v>
+      </c>
       <c r="V23" s="39"/>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
-    </row>
-    <row r="24" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y23" s="39"/>
+    </row>
+    <row r="24" spans="1:25" ht="66" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>102</v>
+        <v>403</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="H24" s="40"/>
+        <v>11</v>
+      </c>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>42</v>
+      </c>
       <c r="I24" s="41" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="J24" s="47">
-        <v>42856</v>
+        <v>43344</v>
       </c>
       <c r="K24" s="47">
-        <v>42979</v>
+        <v>43586</v>
       </c>
       <c r="L24" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M24" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N24" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O24" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="P24" s="42">
         <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="Q24" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R24" s="39" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="S24" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T24" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="U24" s="39"/>
-      <c r="V24" s="39"/>
+      <c r="T24" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="U24" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="V24" s="39" t="s">
+        <v>446</v>
+      </c>
       <c r="W24" s="39"/>
-      <c r="X24" s="39"/>
-    </row>
-    <row r="25" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X24" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y24" s="39"/>
+    </row>
+    <row r="25" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="C25" s="39" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41" t="s">
-        <v>159</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="I25" s="41"/>
       <c r="J25" s="47">
-        <v>42491</v>
+        <v>43344</v>
       </c>
       <c r="K25" s="47">
-        <v>42614</v>
+        <v>43569</v>
       </c>
       <c r="L25" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M25" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="N25" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O25" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="P25" s="42">
         <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
+        <v>0.61643835616438358</v>
       </c>
       <c r="Q25" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R25" s="39" t="s">
-        <v>57</v>
+        <v>439</v>
       </c>
       <c r="S25" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T25" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="U25" s="39"/>
-      <c r="V25" s="39"/>
+      <c r="T25" s="44" t="s">
+        <v>440</v>
+      </c>
+      <c r="U25" s="39" t="s">
+        <v>442</v>
+      </c>
+      <c r="V25" s="39" t="s">
+        <v>441</v>
+      </c>
       <c r="W25" s="39"/>
       <c r="X25" s="39"/>
-    </row>
-    <row r="26" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y25" s="39"/>
+    </row>
+    <row r="26" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="40"/>
+        <v>105</v>
+      </c>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="I26" s="41"/>
       <c r="J26" s="47">
-        <v>40544</v>
+        <v>42401</v>
       </c>
       <c r="K26" s="47">
-        <v>41275</v>
+        <v>42826</v>
       </c>
       <c r="L26" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="N26" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O26" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="P26" s="42">
         <f t="shared" si="0"/>
-        <v>2.0027397260273974</v>
+        <v>1.1643835616438356</v>
       </c>
       <c r="Q26" s="39" t="s">
         <v>31</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="S26" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T26" s="39"/>
-      <c r="U26" s="39"/>
+      <c r="T26" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="U26" s="39" t="s">
+        <v>486</v>
+      </c>
       <c r="V26" s="39"/>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
-    </row>
-    <row r="27" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y26" s="39"/>
+    </row>
+    <row r="27" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="C27" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="H27" s="40"/>
+        <v>154</v>
+      </c>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>155</v>
+      </c>
       <c r="I27" s="41"/>
       <c r="J27" s="47">
-        <v>43952</v>
+        <v>41883</v>
       </c>
       <c r="K27" s="47">
-        <v>43983</v>
+        <v>42125</v>
       </c>
       <c r="L27" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M27" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="N27" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O27" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="P27" s="42">
         <f t="shared" si="0"/>
-        <v>1.0333333333333334</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="Q27" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R27" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S27" s="39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T27" s="39" t="s">
-        <v>449</v>
-      </c>
-      <c r="U27" s="39" t="s">
-        <v>450</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="U27" s="39"/>
       <c r="V27" s="39"/>
-      <c r="W27" s="39" t="s">
-        <v>387</v>
-      </c>
+      <c r="W27" s="39"/>
       <c r="X27" s="39"/>
-    </row>
-    <row r="28" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y27" s="39"/>
+    </row>
+    <row r="28" spans="1:25" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>15</v>
+        <v>358</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>184</v>
+        <v>33</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>373</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>374</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>433</v>
+      </c>
       <c r="J28" s="47">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="K28" s="47">
-        <f ca="1">NOW()</f>
-        <v>44440.534235648149</v>
+        <v>44012</v>
       </c>
       <c r="L28" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
         <v>2020</v>
       </c>
       <c r="N28" s="49">
-        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(CV[[#This Row],[End]])</f>
+        <v>6</v>
       </c>
       <c r="O28" s="49">
-        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(CV[[#This Row],[End]])</f>
+        <v>2020</v>
       </c>
       <c r="P28" s="42">
-        <f t="shared" ca="1" si="0"/>
-        <v>19.28447452160496</v>
+        <f t="shared" si="0"/>
+        <v>6.0333333333333332</v>
       </c>
       <c r="Q28" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R28" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S28" s="39" t="s">
         <v>52</v>
       </c>
       <c r="T28" s="39" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="U28" s="39" t="s">
-        <v>444</v>
-      </c>
-      <c r="V28" s="39"/>
-      <c r="W28" s="39"/>
+        <v>431</v>
+      </c>
+      <c r="V28" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="W28" s="39" t="s">
+        <v>551</v>
+      </c>
       <c r="X28" s="39"/>
-    </row>
-    <row r="29" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y28" s="39"/>
+    </row>
+    <row r="29" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>399</v>
+        <v>46</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>15</v>
+        <v>358</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="H29" s="40"/>
+        <v>393</v>
+      </c>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="40" t="s">
+        <v>392</v>
+      </c>
       <c r="I29" s="41"/>
       <c r="J29" s="47">
-        <v>43862</v>
+        <v>43709</v>
       </c>
       <c r="K29" s="47">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="L29" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M29" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="N29" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O29" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
@@ -6052,56 +6131,55 @@
       </c>
       <c r="P29" s="42">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9.1333333333333329</v>
       </c>
       <c r="Q29" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R29" s="39" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="S29" s="39" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="T29" s="39" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="U29" s="39"/>
       <c r="V29" s="39"/>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
-    </row>
-    <row r="30" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y29" s="39"/>
+    </row>
+    <row r="30" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>15</v>
+        <v>358</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>44</v>
+        <v>410</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41" t="s">
-        <v>94</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30" s="41"/>
       <c r="J30" s="47">
-        <v>43730</v>
+        <v>43344</v>
       </c>
       <c r="K30" s="47">
-        <v>43734</v>
+        <v>43586</v>
       </c>
       <c r="L30" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -6109,11 +6187,11 @@
       </c>
       <c r="M30" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="N30" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O30" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
@@ -6121,59 +6199,55 @@
       </c>
       <c r="P30" s="42">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="Q30" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R30" s="39" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="S30" s="39" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="T30" s="39" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="U30" s="39"/>
-      <c r="V30" s="39" t="s">
-        <v>380</v>
-      </c>
+      <c r="V30" s="39"/>
       <c r="W30" s="39"/>
       <c r="X30" s="39"/>
-    </row>
-    <row r="31" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y30" s="39"/>
+    </row>
+    <row r="31" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>15</v>
+        <v>358</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41" t="s">
-        <v>643</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="I31" s="41"/>
       <c r="J31" s="47">
-        <v>43729</v>
+        <v>43344</v>
       </c>
       <c r="K31" s="47">
-        <f ca="1">NOW()</f>
-        <v>44440.534235648149</v>
+        <v>43586</v>
       </c>
       <c r="L31" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -6181,141 +6255,137 @@
       </c>
       <c r="M31" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
+        <v>2018</v>
+      </c>
+      <c r="N31" s="49">
+        <f>MONTH(CV[[#This Row],[End]])</f>
+        <v>5</v>
+      </c>
+      <c r="O31" s="49">
+        <f>YEAR(CV[[#This Row],[End]])</f>
         <v>2019</v>
       </c>
-      <c r="N31" s="49">
-        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
-      </c>
-      <c r="O31" s="49">
-        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
-        <v>2021</v>
-      </c>
       <c r="P31" s="42">
-        <f t="shared" ca="1" si="0"/>
-        <v>23.717807854938293</v>
+        <f t="shared" si="0"/>
+        <v>8.0666666666666664</v>
       </c>
       <c r="Q31" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R31" s="39" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="S31" s="39" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="T31" s="39" t="s">
-        <v>539</v>
-      </c>
-      <c r="U31" s="39" t="s">
-        <v>540</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="U31" s="39"/>
       <c r="V31" s="39"/>
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
-    </row>
-    <row r="32" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y31" s="39"/>
+    </row>
+    <row r="32" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>15</v>
+        <v>358</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="40"/>
+        <v>552</v>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="40" t="s">
+        <v>162</v>
+      </c>
       <c r="I32" s="41" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="J32" s="47">
-        <v>43647</v>
+        <v>42592</v>
       </c>
       <c r="K32" s="47">
-        <v>43983</v>
+        <v>42605</v>
       </c>
       <c r="L32" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M32" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="N32" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O32" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="P32" s="42">
         <f t="shared" si="0"/>
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="Q32" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R32" s="39" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="S32" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="T32" s="39" t="s">
-        <v>448</v>
-      </c>
-      <c r="U32" s="39" t="s">
-        <v>447</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
       <c r="V32" s="39"/>
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
-    </row>
-    <row r="33" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y32" s="39"/>
+    </row>
+    <row r="33" spans="1:25" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>15</v>
+        <v>398</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="40"/>
+        <v>106</v>
+      </c>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>108</v>
+      </c>
       <c r="I33" s="41"/>
       <c r="J33" s="47">
-        <v>43617</v>
+        <v>43548</v>
       </c>
       <c r="K33" s="47">
-        <v>43623</v>
+        <v>43548</v>
       </c>
       <c r="L33" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M33" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
@@ -6323,7 +6393,7 @@
       </c>
       <c r="N33" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O33" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
@@ -6331,30 +6401,29 @@
       </c>
       <c r="P33" s="42">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="39" t="s">
         <v>32</v>
       </c>
       <c r="R33" s="39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="S33" s="39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T33" s="39" t="s">
-        <v>522</v>
-      </c>
-      <c r="U33" s="39" t="s">
-        <v>523</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="U33" s="39"/>
       <c r="V33" s="39"/>
       <c r="W33" s="39" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="X33" s="39"/>
-    </row>
-    <row r="34" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y33" s="39"/>
+    </row>
+    <row r="34" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
         <v>489</v>
       </c>
@@ -6362,68 +6431,67 @@
         <v>46</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>15</v>
+        <v>398</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="40"/>
+        <v>172</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>173</v>
+      </c>
       <c r="I34" s="41"/>
       <c r="J34" s="47">
-        <v>43586</v>
+        <v>42795</v>
       </c>
       <c r="K34" s="47">
-        <v>43709</v>
+        <v>42795</v>
       </c>
       <c r="L34" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M34" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="N34" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O34" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="P34" s="42">
         <f t="shared" ref="P34:P65" si="1">IF((Q34="Days"),((K34-J34+1)),IF(Q34="Months",((K34-J34)/30),((K34-J34)/365)))</f>
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R34" s="39" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="S34" s="39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T34" s="39" t="s">
-        <v>524</v>
-      </c>
-      <c r="U34" s="39" t="s">
-        <v>525</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="U34" s="39"/>
       <c r="V34" s="39"/>
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
-    </row>
-    <row r="35" spans="1:24" ht="66" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y34" s="39"/>
+    </row>
+    <row r="35" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
         <v>489</v>
       </c>
@@ -6431,37 +6499,35 @@
         <v>46</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>15</v>
+        <v>398</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>403</v>
+        <v>109</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="41" t="s">
-        <v>43</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="41"/>
       <c r="J35" s="47">
-        <v>43344</v>
+        <v>42513</v>
       </c>
       <c r="K35" s="47">
-        <v>43586</v>
+        <v>42513</v>
       </c>
       <c r="L35" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M35" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="N35" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
@@ -6469,36 +6535,31 @@
       </c>
       <c r="O35" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="P35" s="42">
         <f t="shared" si="1"/>
-        <v>8.0666666666666664</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R35" s="39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="S35" s="39" t="s">
         <v>56</v>
       </c>
       <c r="T35" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="U35" s="39" t="s">
-        <v>445</v>
-      </c>
-      <c r="V35" s="39" t="s">
-        <v>446</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
       <c r="W35" s="39"/>
-      <c r="X35" s="39" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+    </row>
+    <row r="36" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
         <v>489</v>
       </c>
@@ -6506,336 +6567,347 @@
         <v>46</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>15</v>
+        <v>398</v>
       </c>
       <c r="D36" s="39" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>436</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>438</v>
-      </c>
-      <c r="H36" s="40"/>
+        <v>110</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="I36" s="41"/>
       <c r="J36" s="47">
-        <v>43344</v>
+        <v>42491</v>
       </c>
       <c r="K36" s="47">
-        <v>43569</v>
+        <v>42493</v>
       </c>
       <c r="L36" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M36" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="N36" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O36" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="P36" s="42">
         <f t="shared" si="1"/>
-        <v>0.61643835616438358</v>
+        <v>3</v>
       </c>
       <c r="Q36" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R36" s="39" t="s">
-        <v>439</v>
+        <v>57</v>
       </c>
       <c r="S36" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T36" s="44" t="s">
-        <v>440</v>
-      </c>
-      <c r="U36" s="39" t="s">
-        <v>442</v>
-      </c>
-      <c r="V36" s="39" t="s">
-        <v>441</v>
-      </c>
+      <c r="T36" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
       <c r="W36" s="39"/>
       <c r="X36" s="39"/>
-    </row>
-    <row r="37" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y36" s="39"/>
+    </row>
+    <row r="37" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
+        <v>13</v>
+      </c>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="J37" s="47">
-        <v>42401</v>
+        <v>43952</v>
       </c>
       <c r="K37" s="47">
-        <v>42826</v>
+        <f t="shared" ref="K37:K43" ca="1" si="2">NOW()</f>
+        <v>44452.574539583336</v>
       </c>
       <c r="L37" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M37" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="N37" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>4</v>
+        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="O37" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2017</v>
+        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="P37" s="42">
-        <f t="shared" si="1"/>
-        <v>1.1643835616438356</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16.685817986111214</v>
       </c>
       <c r="Q37" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R37" s="39" t="s">
-        <v>57</v>
+        <v>538</v>
       </c>
       <c r="S37" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T37" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="U37" s="39" t="s">
-        <v>486</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
       <c r="V37" s="39"/>
       <c r="W37" s="39"/>
-      <c r="X37" s="39"/>
-    </row>
-    <row r="38" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X37" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y37" s="39"/>
+    </row>
+    <row r="38" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>160</v>
+        <v>39</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="39" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="H38" s="40"/>
-      <c r="I38" s="41"/>
+        <v>11</v>
+      </c>
+      <c r="F38" s="40"/>
+      <c r="G38" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>350</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="J38" s="47">
-        <v>41883</v>
+        <v>43556</v>
       </c>
       <c r="K38" s="47">
-        <v>42125</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>44452.574539583336</v>
       </c>
       <c r="L38" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M38" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="N38" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>5</v>
+        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="O38" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2015</v>
+        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="P38" s="42">
-        <f t="shared" si="1"/>
-        <v>8.0666666666666664</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4563686015981818</v>
       </c>
       <c r="Q38" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R38" s="39" t="s">
-        <v>57</v>
+        <v>538</v>
       </c>
       <c r="S38" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T38" s="39" t="s">
-        <v>530</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="T38" s="39"/>
       <c r="U38" s="39"/>
       <c r="V38" s="39"/>
       <c r="W38" s="39"/>
-      <c r="X38" s="39"/>
-    </row>
-    <row r="39" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X38" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y38" s="39"/>
+    </row>
+    <row r="39" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B39" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>15</v>
+        <v>397</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="41"/>
+        <v>117</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="41" t="s">
+        <v>120</v>
+      </c>
       <c r="J39" s="47">
-        <v>43586</v>
+        <v>43734</v>
       </c>
       <c r="K39" s="47">
-        <v>43586</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>44452.574539583336</v>
       </c>
       <c r="L39" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M39" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
         <v>2019</v>
       </c>
       <c r="N39" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>5</v>
+        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="O39" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2019</v>
+        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="P39" s="42">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>23.95248465277788</v>
       </c>
       <c r="Q39" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R39" s="39" t="s">
-        <v>60</v>
+        <v>538</v>
       </c>
       <c r="S39" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="T39" s="39"/>
+        <v>144</v>
+      </c>
+      <c r="T39" s="39" t="s">
+        <v>549</v>
+      </c>
       <c r="U39" s="39"/>
       <c r="V39" s="39"/>
       <c r="W39" s="39"/>
       <c r="X39" s="39"/>
-    </row>
-    <row r="40" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y39" s="39"/>
+    </row>
+    <row r="40" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>15</v>
+        <v>397</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="41"/>
+        <v>123</v>
+      </c>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="I40" s="41" t="s">
+        <v>128</v>
+      </c>
       <c r="J40" s="47">
-        <v>42125</v>
+        <v>43466</v>
       </c>
       <c r="K40" s="47">
-        <v>42248</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>44452.574539583336</v>
       </c>
       <c r="L40" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M40" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="N40" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
+        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="O40" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2015</v>
+        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="P40" s="42">
-        <f t="shared" si="1"/>
-        <v>4.0999999999999996</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32.885817986111213</v>
       </c>
       <c r="Q40" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R40" s="39" t="s">
-        <v>57</v>
+        <v>538</v>
       </c>
       <c r="S40" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T40" s="40" t="s">
-        <v>113</v>
+        <v>144</v>
+      </c>
+      <c r="T40" s="39" t="s">
+        <v>548</v>
       </c>
       <c r="U40" s="39"/>
       <c r="V40" s="39"/>
       <c r="W40" s="39"/>
       <c r="X40" s="39"/>
-    </row>
-    <row r="41" spans="1:24" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="Y40" s="39"/>
+    </row>
+    <row r="41" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
         <v>489</v>
       </c>
@@ -6843,74 +6915,70 @@
         <v>46</v>
       </c>
       <c r="C41" s="39" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="D41" s="39" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>432</v>
-      </c>
-      <c r="H41" s="40"/>
+        <v>124</v>
+      </c>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>126</v>
+      </c>
       <c r="I41" s="41" t="s">
-        <v>433</v>
+        <v>127</v>
       </c>
       <c r="J41" s="47">
-        <v>43831</v>
+        <v>43435</v>
       </c>
       <c r="K41" s="47">
-        <v>44012</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>44452.574539583336</v>
       </c>
       <c r="L41" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M41" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="N41" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>6</v>
+        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="O41" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2020</v>
+        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="P41" s="42">
-        <f t="shared" si="1"/>
-        <v>6.0333333333333332</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>33.919151319444545</v>
       </c>
       <c r="Q41" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R41" s="39" t="s">
-        <v>59</v>
+        <v>538</v>
       </c>
       <c r="S41" s="39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="T41" s="39" t="s">
-        <v>434</v>
-      </c>
-      <c r="U41" s="39" t="s">
-        <v>431</v>
-      </c>
-      <c r="V41" s="39" t="s">
-        <v>435</v>
-      </c>
-      <c r="W41" s="39" t="s">
-        <v>551</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
       <c r="X41" s="39"/>
-    </row>
-    <row r="42" spans="1:24" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Y41" s="39"/>
+    </row>
+    <row r="42" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>489</v>
       </c>
@@ -6918,131 +6986,137 @@
         <v>46</v>
       </c>
       <c r="C42" s="39" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="D42" s="39" t="s">
-        <v>406</v>
+        <v>116</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>393</v>
-      </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="H42" s="40"/>
+        <v>132</v>
+      </c>
+      <c r="F42" s="40"/>
+      <c r="G42" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>133</v>
+      </c>
       <c r="I42" s="41"/>
       <c r="J42" s="47">
-        <v>43709</v>
+        <v>43374</v>
       </c>
       <c r="K42" s="47">
-        <v>43983</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>44452.574539583336</v>
       </c>
       <c r="L42" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M42" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="N42" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>6</v>
+        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="O42" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2020</v>
+        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="P42" s="42">
-        <f t="shared" si="1"/>
-        <v>9.1333333333333329</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35.952484652777883</v>
       </c>
       <c r="Q42" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R42" s="39" t="s">
-        <v>63</v>
+        <v>538</v>
       </c>
       <c r="S42" s="39" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="T42" s="39" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="U42" s="39"/>
       <c r="V42" s="39"/>
       <c r="W42" s="39"/>
       <c r="X42" s="39"/>
-    </row>
-    <row r="43" spans="1:24" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Y42" s="39"/>
+    </row>
+    <row r="43" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>410</v>
+        <v>149</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="41"/>
+        <v>134</v>
+      </c>
+      <c r="F43" s="40"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="41" t="s">
+        <v>136</v>
+      </c>
       <c r="J43" s="47">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="K43" s="47">
-        <v>43586</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>44452.574539583336</v>
       </c>
       <c r="L43" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M43" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
         <v>2018</v>
       </c>
       <c r="N43" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>5</v>
+        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
+        <v>9</v>
       </c>
       <c r="O43" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2019</v>
+        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
+        <v>2021</v>
       </c>
       <c r="P43" s="42">
-        <f t="shared" si="1"/>
-        <v>8.0666666666666664</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>35.952484652777883</v>
       </c>
       <c r="Q43" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R43" s="39" t="s">
-        <v>55</v>
+        <v>538</v>
       </c>
       <c r="S43" s="39" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="T43" s="39" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="U43" s="39"/>
       <c r="V43" s="39"/>
       <c r="W43" s="39"/>
       <c r="X43" s="39"/>
-    </row>
-    <row r="44" spans="1:24" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Y43" s="39"/>
+    </row>
+    <row r="44" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
         <v>489</v>
       </c>
@@ -7050,27 +7124,29 @@
         <v>160</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="40" t="s">
-        <v>534</v>
-      </c>
-      <c r="H44" s="40"/>
-      <c r="I44" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="F44" s="40"/>
+      <c r="G44" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="I44" s="41" t="s">
+        <v>459</v>
+      </c>
       <c r="J44" s="47">
-        <v>43344</v>
+        <v>44075</v>
       </c>
       <c r="K44" s="47">
-        <v>43586</v>
+        <v>44681</v>
       </c>
       <c r="L44" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -7078,74 +7154,73 @@
       </c>
       <c r="M44" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="N44" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O44" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="P44" s="42">
         <f t="shared" si="1"/>
-        <v>8.0666666666666664</v>
+        <v>1.6602739726027398</v>
       </c>
       <c r="Q44" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R44" s="39" t="s">
-        <v>55</v>
+        <v>456</v>
       </c>
       <c r="S44" s="39" t="s">
-        <v>56</v>
+        <v>457</v>
       </c>
       <c r="T44" s="39" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="U44" s="39"/>
       <c r="V44" s="39"/>
       <c r="W44" s="39"/>
       <c r="X44" s="39"/>
-    </row>
-    <row r="45" spans="1:24" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Y44" s="39"/>
+    </row>
+    <row r="45" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A45" s="39" t="s">
         <v>489</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E45" s="40" t="s">
-        <v>552</v>
-      </c>
-      <c r="F45" s="41"/>
-      <c r="G45" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="H45" s="40"/>
-      <c r="I45" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="J45" s="47">
-        <v>42592</v>
+        <v>67</v>
+      </c>
+      <c r="F45" s="40"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="48">
+        <v>43221</v>
       </c>
       <c r="K45" s="47">
-        <v>42605</v>
+        <v>43343</v>
       </c>
       <c r="L45" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M45" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="N45" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
@@ -7153,408 +7228,477 @@
       </c>
       <c r="O45" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="P45" s="42">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="Q45" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R45" s="39" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="S45" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T45" s="39"/>
+      <c r="T45" s="39" t="s">
+        <v>640</v>
+      </c>
       <c r="U45" s="39"/>
       <c r="V45" s="39"/>
       <c r="W45" s="39"/>
       <c r="X45" s="39"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y45" s="39"/>
+    </row>
+    <row r="46" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>399</v>
+        <v>160</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>647</v>
+        <v>404</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>647</v>
-      </c>
-      <c r="F46" s="41"/>
-      <c r="G46" s="40" t="s">
-        <v>646</v>
-      </c>
-      <c r="H46" s="40"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="47"/>
+        <v>634</v>
+      </c>
+      <c r="F46" s="40"/>
+      <c r="G46" s="41" t="s">
+        <v>635</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="I46" s="41" t="s">
+        <v>632</v>
+      </c>
+      <c r="J46" s="47">
+        <v>42856</v>
+      </c>
+      <c r="K46" s="47">
+        <v>42979</v>
+      </c>
       <c r="L46" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M46" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="N46" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O46" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="P46" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="39"/>
-      <c r="T46" s="39"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q46" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R46" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="S46" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="T46" s="39" t="s">
+        <v>637</v>
+      </c>
       <c r="U46" s="39"/>
       <c r="V46" s="39"/>
       <c r="W46" s="39"/>
       <c r="X46" s="39"/>
-    </row>
-    <row r="47" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Y46" s="39"/>
+    </row>
+    <row r="47" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A47" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B47" s="39" t="s">
         <v>160</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>648</v>
+        <v>408</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>650</v>
-      </c>
-      <c r="F47" s="41" t="s">
-        <v>651</v>
-      </c>
-      <c r="G47" s="40" t="s">
-        <v>653</v>
-      </c>
-      <c r="H47" s="40"/>
+        <v>7</v>
+      </c>
+      <c r="F47" s="40"/>
+      <c r="G47" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>644</v>
+      </c>
       <c r="I47" s="41"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="47"/>
+      <c r="J47" s="47">
+        <v>42795</v>
+      </c>
+      <c r="K47" s="47">
+        <v>42795</v>
+      </c>
       <c r="L47" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M47" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="N47" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O47" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>1900</v>
+        <v>2017</v>
       </c>
       <c r="P47" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="39"/>
-      <c r="R47" s="39"/>
-      <c r="S47" s="39"/>
-      <c r="T47" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="R47" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S47" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="T47" s="39" t="s">
+        <v>645</v>
+      </c>
       <c r="U47" s="39"/>
       <c r="V47" s="39"/>
       <c r="W47" s="39"/>
       <c r="X47" s="39"/>
-    </row>
-    <row r="48" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Y47" s="39"/>
+    </row>
+    <row r="48" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B48" s="39" t="s">
         <v>160</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>33</v>
+        <v>404</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>586</v>
-      </c>
-      <c r="F48" s="41" t="s">
-        <v>628</v>
-      </c>
-      <c r="G48" s="40" t="s">
-        <v>649</v>
-      </c>
-      <c r="H48" s="40"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="47"/>
+        <v>636</v>
+      </c>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41" t="s">
+        <v>631</v>
+      </c>
+      <c r="H48" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="I48" s="41" t="s">
+        <v>632</v>
+      </c>
+      <c r="J48" s="47">
+        <v>42491</v>
+      </c>
+      <c r="K48" s="47">
+        <v>42614</v>
+      </c>
       <c r="L48" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M48" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>1900</v>
+        <v>2016</v>
       </c>
       <c r="N48" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O48" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>1900</v>
+        <v>2016</v>
       </c>
       <c r="P48" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="39"/>
-      <c r="S48" s="39"/>
-      <c r="T48" s="39"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Q48" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="R48" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S48" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="T48" s="39" t="s">
+        <v>638</v>
+      </c>
       <c r="U48" s="39"/>
       <c r="V48" s="39"/>
       <c r="W48" s="39"/>
       <c r="X48" s="39"/>
-    </row>
-    <row r="49" spans="1:24" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Y48" s="39"/>
+    </row>
+    <row r="49" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
         <v>490</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>358</v>
+        <v>5</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>647</v>
+        <v>137</v>
       </c>
       <c r="E49" s="40" t="s">
-        <v>647</v>
-      </c>
-      <c r="F49" s="41"/>
-      <c r="G49" s="40" t="s">
-        <v>652</v>
-      </c>
-      <c r="H49" s="40"/>
+        <v>553</v>
+      </c>
+      <c r="F49" s="40"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="40" t="s">
+        <v>554</v>
+      </c>
       <c r="I49" s="41"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="47"/>
+      <c r="J49" s="47">
+        <v>44094</v>
+      </c>
+      <c r="K49" s="47">
+        <v>44094</v>
+      </c>
       <c r="L49" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M49" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>1900</v>
+        <v>2020</v>
       </c>
       <c r="N49" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O49" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>1900</v>
+        <v>2020</v>
       </c>
       <c r="P49" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="39"/>
-      <c r="R49" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="39" t="s">
+        <v>289</v>
+      </c>
       <c r="S49" s="39"/>
       <c r="T49" s="39"/>
       <c r="U49" s="39"/>
       <c r="V49" s="39"/>
       <c r="W49" s="39"/>
       <c r="X49" s="39"/>
-    </row>
-    <row r="50" spans="1:24" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Y49" s="39"/>
+    </row>
+    <row r="50" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
         <v>490</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>358</v>
+        <v>84</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>410</v>
+        <v>137</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>451</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>452</v>
-      </c>
-      <c r="G50" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="H50" s="40"/>
+        <v>379</v>
+      </c>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="40" t="s">
+        <v>351</v>
+      </c>
       <c r="I50" s="41"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="47"/>
+      <c r="J50" s="47">
+        <v>43764</v>
+      </c>
+      <c r="K50" s="47">
+        <v>43764</v>
+      </c>
       <c r="L50" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M50" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>1900</v>
+        <v>2019</v>
       </c>
       <c r="N50" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O50" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>1900</v>
+        <v>2019</v>
       </c>
       <c r="P50" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="39"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="S50" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="T50" s="39" t="s">
+        <v>544</v>
+      </c>
       <c r="U50" s="39"/>
       <c r="V50" s="39"/>
       <c r="W50" s="39"/>
       <c r="X50" s="39"/>
-    </row>
-    <row r="51" spans="1:24" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y50" s="39"/>
+    </row>
+    <row r="51" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>398</v>
+        <v>5</v>
       </c>
       <c r="D51" s="39" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="H51" s="40"/>
-      <c r="I51" s="41"/>
+        <v>138</v>
+      </c>
+      <c r="F51" s="40"/>
+      <c r="G51" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="I51" s="41" t="s">
+        <v>141</v>
+      </c>
       <c r="J51" s="47">
-        <v>43548</v>
+        <v>43374</v>
       </c>
       <c r="K51" s="47">
-        <v>43548</v>
+        <v>43377</v>
       </c>
       <c r="L51" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M51" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="N51" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O51" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="P51" s="42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q51" s="39" t="s">
         <v>32</v>
       </c>
       <c r="R51" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S51" s="39" t="s">
         <v>56</v>
       </c>
       <c r="T51" s="39" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="U51" s="39"/>
       <c r="V51" s="39"/>
-      <c r="W51" s="39" t="s">
-        <v>519</v>
-      </c>
+      <c r="W51" s="39"/>
       <c r="X51" s="39"/>
-    </row>
-    <row r="52" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y51" s="39"/>
+    </row>
+    <row r="52" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C52" s="39" t="s">
-        <v>398</v>
+        <v>5</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="F52" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52" s="40"/>
+      <c r="G52" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G52" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="H52" s="40"/>
+      <c r="H52" s="40" t="s">
+        <v>157</v>
+      </c>
       <c r="I52" s="41"/>
       <c r="J52" s="47">
-        <v>42795</v>
+        <v>42614</v>
       </c>
       <c r="K52" s="47">
-        <v>42795</v>
+        <v>42856</v>
       </c>
       <c r="L52" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M52" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="N52" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O52" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
@@ -7562,10 +7706,10 @@
       </c>
       <c r="P52" s="42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="Q52" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R52" s="39" t="s">
         <v>57</v>
@@ -7573,47 +7717,48 @@
       <c r="S52" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T52" s="39" t="s">
+      <c r="T52" s="40" t="s">
         <v>114</v>
       </c>
       <c r="U52" s="39"/>
       <c r="V52" s="39"/>
       <c r="W52" s="39"/>
       <c r="X52" s="39"/>
-    </row>
-    <row r="53" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y52" s="39"/>
+    </row>
+    <row r="53" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C53" s="39" t="s">
-        <v>398</v>
+        <v>5</v>
       </c>
       <c r="D53" s="39" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="H53" s="40"/>
-      <c r="I53" s="41"/>
+        <v>504</v>
+      </c>
+      <c r="F53" s="40"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>145</v>
+      </c>
       <c r="J53" s="47">
-        <v>42513</v>
+        <v>42592</v>
       </c>
       <c r="K53" s="47">
-        <v>42513</v>
+        <v>42605</v>
       </c>
       <c r="L53" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M53" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
@@ -7621,7 +7766,7 @@
       </c>
       <c r="N53" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O53" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
@@ -7629,256 +7774,249 @@
       </c>
       <c r="P53" s="42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Q53" s="39" t="s">
         <v>32</v>
       </c>
       <c r="R53" s="39" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="S53" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T53" s="39" t="s">
-        <v>113</v>
-      </c>
+      <c r="T53" s="39"/>
       <c r="U53" s="39"/>
       <c r="V53" s="39"/>
       <c r="W53" s="39"/>
       <c r="X53" s="39"/>
-    </row>
-    <row r="54" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y53" s="39"/>
+    </row>
+    <row r="54" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54" s="39" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>398</v>
+        <v>5</v>
       </c>
       <c r="D54" s="39" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="H54" s="40"/>
+        <v>147</v>
+      </c>
+      <c r="F54" s="40"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="40" t="s">
+        <v>148</v>
+      </c>
       <c r="I54" s="41"/>
       <c r="J54" s="47">
-        <v>42491</v>
+        <v>40603</v>
       </c>
       <c r="K54" s="47">
-        <v>42493</v>
+        <v>40616</v>
       </c>
       <c r="L54" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M54" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="N54" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O54" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="P54" s="42">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q54" s="39" t="s">
         <v>32</v>
       </c>
       <c r="R54" s="39" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="S54" s="39" t="s">
         <v>56</v>
       </c>
       <c r="T54" s="39" t="s">
-        <v>113</v>
+        <v>394</v>
       </c>
       <c r="U54" s="39"/>
       <c r="V54" s="39"/>
       <c r="W54" s="39"/>
       <c r="X54" s="39"/>
-    </row>
-    <row r="55" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y54" s="39"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
         <v>490</v>
       </c>
       <c r="B55" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="39" t="s">
-        <v>398</v>
+      <c r="C55" s="43" t="s">
+        <v>5</v>
       </c>
       <c r="D55" s="39" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" s="40"/>
+        <v>352</v>
+      </c>
+      <c r="F55" s="40"/>
+      <c r="G55" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>353</v>
+      </c>
       <c r="I55" s="41"/>
-      <c r="J55" s="47">
-        <v>43729</v>
-      </c>
-      <c r="K55" s="47">
-        <v>43730</v>
-      </c>
+      <c r="J55" s="48"/>
+      <c r="K55" s="47"/>
       <c r="L55" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M55" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>1900</v>
       </c>
       <c r="N55" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O55" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>1900</v>
       </c>
       <c r="P55" s="42">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q55" s="39" t="s">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="39"/>
       <c r="R55" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="S55" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="T55" s="39"/>
+        <v>289</v>
+      </c>
+      <c r="S55" s="39"/>
+      <c r="T55" s="40" t="s">
+        <v>355</v>
+      </c>
       <c r="U55" s="39"/>
       <c r="V55" s="39"/>
       <c r="W55" s="39"/>
       <c r="X55" s="39"/>
-    </row>
-    <row r="56" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y55" s="39"/>
+    </row>
+    <row r="56" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
         <v>490</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C56" s="39" t="s">
-        <v>398</v>
+        <v>33</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>518</v>
-      </c>
-      <c r="H56" s="40"/>
+        <v>163</v>
+      </c>
+      <c r="F56" s="40"/>
+      <c r="G56" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>166</v>
+      </c>
       <c r="I56" s="41"/>
       <c r="J56" s="47">
-        <v>43657</v>
+        <v>42979</v>
       </c>
       <c r="K56" s="47">
-        <v>43657</v>
+        <v>43221</v>
       </c>
       <c r="L56" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M56" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="N56" s="49">
         <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O56" s="49">
         <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="P56" s="42">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8.0666666666666664</v>
       </c>
       <c r="Q56" s="39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R56" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S56" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="T56" s="39" t="s">
-        <v>531</v>
+        <v>56</v>
+      </c>
+      <c r="T56" s="40" t="s">
+        <v>167</v>
       </c>
       <c r="U56" s="39"/>
       <c r="V56" s="39"/>
       <c r="W56" s="39"/>
       <c r="X56" s="39"/>
-    </row>
-    <row r="57" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y56" s="39"/>
+    </row>
+    <row r="57" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C57" s="39" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="39" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="40"/>
+        <v>163</v>
+      </c>
+      <c r="F57" s="40"/>
+      <c r="G57" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="40" t="s">
+        <v>164</v>
+      </c>
       <c r="I57" s="41" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="J57" s="47">
-        <v>43952</v>
+        <v>42856</v>
       </c>
       <c r="K57" s="47">
-        <f t="shared" ref="K57:K63" ca="1" si="2">NOW()</f>
-        <v>44440.534235648149</v>
+        <v>42979</v>
       </c>
       <c r="L57" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -7886,450 +8024,443 @@
       </c>
       <c r="M57" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="N57" s="49">
-        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
+        <f>MONTH(CV[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="O57" s="49">
-        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(CV[[#This Row],[End]])</f>
+        <v>2017</v>
       </c>
       <c r="P57" s="42">
-        <f t="shared" ca="1" si="1"/>
-        <v>16.28447452160496</v>
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q57" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R57" s="39" t="s">
-        <v>538</v>
+        <v>168</v>
       </c>
       <c r="S57" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="T57" s="39"/>
+        <v>56</v>
+      </c>
+      <c r="T57" s="40" t="s">
+        <v>114</v>
+      </c>
       <c r="U57" s="39"/>
       <c r="V57" s="39"/>
       <c r="W57" s="39"/>
-      <c r="X57" s="39" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
+    </row>
+    <row r="58" spans="1:25" ht="66" x14ac:dyDescent="0.3">
       <c r="A58" s="39" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C58" s="39" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D58" s="39" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E58" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="H58" s="40"/>
+        <v>156</v>
+      </c>
+      <c r="F58" s="40"/>
+      <c r="G58" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>158</v>
+      </c>
       <c r="I58" s="41" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="J58" s="47">
-        <v>43556</v>
+        <v>42491</v>
       </c>
       <c r="K58" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>44440.534235648149</v>
+        <v>42614</v>
       </c>
       <c r="L58" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M58" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="N58" s="49">
-        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
+        <f>MONTH(CV[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="O58" s="49">
-        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(CV[[#This Row],[End]])</f>
+        <v>2016</v>
       </c>
       <c r="P58" s="42">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.4233814675291745</v>
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q58" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R58" s="39" t="s">
-        <v>538</v>
+        <v>57</v>
       </c>
       <c r="S58" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="T58" s="39"/>
+        <v>56</v>
+      </c>
+      <c r="T58" s="40" t="s">
+        <v>113</v>
+      </c>
       <c r="U58" s="39"/>
       <c r="V58" s="39"/>
       <c r="W58" s="39"/>
-      <c r="X58" s="39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="X58" s="39"/>
+      <c r="Y58" s="39"/>
+    </row>
+    <row r="59" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A59" s="39" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>397</v>
+        <v>33</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E59" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="F59" s="41"/>
-      <c r="G59" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="H59" s="40"/>
-      <c r="I59" s="41" t="s">
-        <v>120</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F59" s="40"/>
+      <c r="G59" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" s="41"/>
       <c r="J59" s="47">
-        <v>43734</v>
+        <v>40544</v>
       </c>
       <c r="K59" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>44440.534235648149</v>
+        <v>41275</v>
       </c>
       <c r="L59" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M59" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="N59" s="49">
-        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(CV[[#This Row],[End]])</f>
+        <v>1</v>
       </c>
       <c r="O59" s="49">
-        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(CV[[#This Row],[End]])</f>
+        <v>2013</v>
       </c>
       <c r="P59" s="42">
-        <f t="shared" ca="1" si="1"/>
-        <v>23.551141188271625</v>
+        <f t="shared" si="1"/>
+        <v>2.0027397260273974</v>
       </c>
       <c r="Q59" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R59" s="39" t="s">
-        <v>538</v>
+        <v>79</v>
       </c>
       <c r="S59" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="T59" s="39" t="s">
-        <v>549</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="T59" s="39"/>
       <c r="U59" s="39"/>
       <c r="V59" s="39"/>
       <c r="W59" s="39"/>
       <c r="X59" s="39"/>
-    </row>
-    <row r="60" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y59" s="39"/>
+    </row>
+    <row r="60" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A60" s="39" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C60" s="39" t="s">
-        <v>397</v>
+        <v>15</v>
       </c>
       <c r="D60" s="39" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="F60" s="41"/>
-      <c r="G60" s="40" t="s">
-        <v>496</v>
-      </c>
-      <c r="H60" s="40"/>
-      <c r="I60" s="41" t="s">
-        <v>128</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F60" s="40"/>
+      <c r="G60" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" s="41"/>
       <c r="J60" s="47">
-        <v>43466</v>
+        <v>43586</v>
       </c>
       <c r="K60" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>44440.534235648149</v>
+        <v>43586</v>
       </c>
       <c r="L60" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M60" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
         <v>2019</v>
       </c>
       <c r="N60" s="49">
-        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(CV[[#This Row],[End]])</f>
+        <v>5</v>
       </c>
       <c r="O60" s="49">
-        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(CV[[#This Row],[End]])</f>
+        <v>2019</v>
       </c>
       <c r="P60" s="42">
-        <f t="shared" ca="1" si="1"/>
-        <v>32.484474521604959</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q60" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R60" s="39" t="s">
-        <v>538</v>
+        <v>60</v>
       </c>
       <c r="S60" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="T60" s="39" t="s">
-        <v>548</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="T60" s="39"/>
       <c r="U60" s="39"/>
       <c r="V60" s="39"/>
       <c r="W60" s="39"/>
       <c r="X60" s="39"/>
-    </row>
-    <row r="61" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y60" s="39"/>
+    </row>
+    <row r="61" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>397</v>
+        <v>15</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="E61" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G61" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="H61" s="40"/>
-      <c r="I61" s="41" t="s">
-        <v>127</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F61" s="40"/>
+      <c r="G61" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="I61" s="41"/>
       <c r="J61" s="47">
-        <v>43435</v>
+        <v>42125</v>
       </c>
       <c r="K61" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>44440.534235648149</v>
+        <v>42248</v>
       </c>
       <c r="L61" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M61" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="N61" s="49">
-        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
+        <f>MONTH(CV[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="O61" s="49">
-        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(CV[[#This Row],[End]])</f>
+        <v>2015</v>
       </c>
       <c r="P61" s="42">
-        <f t="shared" ca="1" si="1"/>
-        <v>33.51780785493829</v>
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q61" s="39" t="s">
         <v>30</v>
       </c>
       <c r="R61" s="39" t="s">
-        <v>538</v>
+        <v>57</v>
       </c>
       <c r="S61" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="T61" s="39" t="s">
-        <v>545</v>
+      <c r="T61" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="U61" s="39"/>
       <c r="V61" s="39"/>
       <c r="W61" s="39"/>
       <c r="X61" s="39"/>
-    </row>
-    <row r="62" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y61" s="39"/>
+    </row>
+    <row r="62" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A62" s="39" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B62" s="39" t="s">
         <v>46</v>
       </c>
       <c r="C62" s="39" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D62" s="39" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="E62" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62" s="41" t="s">
-        <v>389</v>
-      </c>
-      <c r="G62" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="H62" s="40"/>
+        <v>11</v>
+      </c>
+      <c r="F62" s="40"/>
+      <c r="G62" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>80</v>
+      </c>
       <c r="I62" s="41"/>
       <c r="J62" s="47">
-        <v>43374</v>
+        <v>43729</v>
       </c>
       <c r="K62" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>44440.534235648149</v>
+        <v>43730</v>
       </c>
       <c r="L62" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M62" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="N62" s="49">
-        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
+        <f>MONTH(CV[[#This Row],[End]])</f>
         <v>9</v>
       </c>
       <c r="O62" s="49">
-        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(CV[[#This Row],[End]])</f>
+        <v>2019</v>
       </c>
       <c r="P62" s="42">
-        <f t="shared" ca="1" si="1"/>
-        <v>35.551141188271622</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="Q62" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R62" s="39" t="s">
-        <v>538</v>
+        <v>88</v>
       </c>
       <c r="S62" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="T62" s="39" t="s">
-        <v>546</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="T62" s="39"/>
       <c r="U62" s="39"/>
       <c r="V62" s="39"/>
       <c r="W62" s="39"/>
       <c r="X62" s="39"/>
-    </row>
-    <row r="63" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y62" s="39"/>
+    </row>
+    <row r="63" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="39" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="C63" s="39" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D63" s="39" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="E63" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F63" s="41"/>
-      <c r="G63" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="H63" s="40"/>
-      <c r="I63" s="41" t="s">
-        <v>136</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F63" s="40"/>
+      <c r="G63" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="I63" s="41"/>
       <c r="J63" s="47">
-        <v>43374</v>
+        <v>43657</v>
       </c>
       <c r="K63" s="47">
-        <f t="shared" ca="1" si="2"/>
-        <v>44440.534235648149</v>
+        <v>43657</v>
       </c>
       <c r="L63" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M63" s="49">
         <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="N63" s="49">
-        <f ca="1">MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
+        <f>MONTH(CV[[#This Row],[End]])</f>
+        <v>7</v>
       </c>
       <c r="O63" s="49">
-        <f ca="1">YEAR(CV[[#This Row],[End]])</f>
-        <v>2021</v>
+        <f>YEAR(CV[[#This Row],[End]])</f>
+        <v>2019</v>
       </c>
       <c r="P63" s="42">
-        <f t="shared" ca="1" si="1"/>
-        <v>35.551141188271622</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="Q63" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R63" s="39" t="s">
-        <v>538</v>
+        <v>59</v>
       </c>
       <c r="S63" s="39" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="T63" s="39" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="U63" s="39"/>
       <c r="V63" s="39"/>
       <c r="W63" s="39"/>
       <c r="X63" s="39"/>
-    </row>
-    <row r="64" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y63" s="39"/>
+    </row>
+    <row r="64" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
         <v>490</v>
       </c>
@@ -8345,11 +8476,11 @@
       <c r="E64" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="F64" s="41"/>
-      <c r="G64" s="40" t="s">
+      <c r="F64" s="40"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="H64" s="40"/>
       <c r="I64" s="41"/>
       <c r="J64" s="47">
         <v>43709</v>
@@ -8395,8 +8526,9 @@
       <c r="X64" s="39" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y64" s="39"/>
+    </row>
+    <row r="65" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
         <v>490</v>
       </c>
@@ -8412,11 +8544,11 @@
       <c r="E65" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="41"/>
-      <c r="G65" s="40" t="s">
+      <c r="F65" s="40"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="H65" s="40"/>
       <c r="I65" s="41" t="s">
         <v>122</v>
       </c>
@@ -8425,7 +8557,7 @@
       </c>
       <c r="K65" s="47">
         <f ca="1">NOW()</f>
-        <v>44440.534235648149</v>
+        <v>44452.574539583336</v>
       </c>
       <c r="L65" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -8445,7 +8577,7 @@
       </c>
       <c r="P65" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>28.484474521604959</v>
+        <v>28.885817986111213</v>
       </c>
       <c r="Q65" s="39" t="s">
         <v>30</v>
@@ -8463,8 +8595,9 @@
       <c r="X65" s="39" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y65" s="39"/>
+    </row>
+    <row r="66" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A66" s="39" t="s">
         <v>490</v>
       </c>
@@ -8480,20 +8613,20 @@
       <c r="E66" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="F66" s="41" t="s">
+      <c r="F66" s="40"/>
+      <c r="G66" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="G66" s="40" t="s">
+      <c r="H66" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="H66" s="40"/>
       <c r="I66" s="41"/>
       <c r="J66" s="47">
         <v>43374</v>
       </c>
       <c r="K66" s="47">
         <f ca="1">NOW()</f>
-        <v>44440.534235648149</v>
+        <v>44452.574539583336</v>
       </c>
       <c r="L66" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -8512,8 +8645,8 @@
         <v>2021</v>
       </c>
       <c r="P66" s="42">
-        <f t="shared" ref="P66:P97" ca="1" si="3">IF((Q66="Days"),((K66-J66+1)),IF(Q66="Months",((K66-J66)/30),((K66-J66)/365)))</f>
-        <v>35.551141188271622</v>
+        <f t="shared" ref="P66:P69" ca="1" si="3">IF((Q66="Days"),((K66-J66+1)),IF(Q66="Months",((K66-J66)/30),((K66-J66)/365)))</f>
+        <v>35.952484652777883</v>
       </c>
       <c r="Q66" s="39" t="s">
         <v>30</v>
@@ -8531,8 +8664,9 @@
       <c r="V66" s="39"/>
       <c r="W66" s="39"/>
       <c r="X66" s="39"/>
-    </row>
-    <row r="67" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y66" s="39"/>
+    </row>
+    <row r="67" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A67" s="39" t="s">
         <v>490</v>
       </c>
@@ -8548,11 +8682,11 @@
       <c r="E67" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="F67" s="41"/>
-      <c r="G67" s="40" t="s">
+      <c r="F67" s="40"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="H67" s="40"/>
       <c r="I67" s="41"/>
       <c r="J67" s="47">
         <v>42491</v>
@@ -8596,8 +8730,9 @@
       <c r="V67" s="39"/>
       <c r="W67" s="39"/>
       <c r="X67" s="39"/>
-    </row>
-    <row r="68" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y67" s="39"/>
+    </row>
+    <row r="68" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A68" s="39" t="s">
         <v>490</v>
       </c>
@@ -8613,13 +8748,13 @@
       <c r="E68" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="41" t="s">
+      <c r="F68" s="40"/>
+      <c r="G68" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="40" t="s">
+      <c r="H68" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="H68" s="40"/>
       <c r="I68" s="41"/>
       <c r="J68" s="47">
         <v>42248</v>
@@ -8663,8 +8798,9 @@
       <c r="V68" s="39"/>
       <c r="W68" s="39"/>
       <c r="X68" s="39"/>
-    </row>
-    <row r="69" spans="1:24" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="Y68" s="39"/>
+    </row>
+    <row r="69" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A69" s="39" t="s">
         <v>490</v>
       </c>
@@ -8680,18 +8816,18 @@
       <c r="E69" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="F69" s="41"/>
-      <c r="G69" s="40" t="s">
+      <c r="F69" s="40"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="H69" s="40"/>
       <c r="I69" s="41"/>
       <c r="J69" s="47">
         <v>41091</v>
       </c>
       <c r="K69" s="47">
         <f ca="1">NOW()</f>
-        <v>44440.534235648149</v>
+        <v>44452.574539583336</v>
       </c>
       <c r="L69" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -8711,7 +8847,7 @@
       </c>
       <c r="P69" s="42">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1768061250634219</v>
+        <v>9.2097932591324287</v>
       </c>
       <c r="Q69" s="39" t="s">
         <v>31</v>
@@ -8729,387 +8865,52 @@
       <c r="V69" s="39"/>
       <c r="W69" s="39"/>
       <c r="X69" s="39"/>
-    </row>
-    <row r="70" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="D70" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="E70" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G70" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="H70" s="40"/>
-      <c r="I70" s="41" t="s">
-        <v>459</v>
-      </c>
-      <c r="J70" s="47">
-        <v>44075</v>
-      </c>
-      <c r="K70" s="47">
-        <v>44681</v>
-      </c>
-      <c r="L70" s="49">
-        <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>9</v>
-      </c>
-      <c r="M70" s="49">
-        <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2020</v>
-      </c>
-      <c r="N70" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>4</v>
-      </c>
-      <c r="O70" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2022</v>
-      </c>
-      <c r="P70" s="42">
-        <f t="shared" si="3"/>
-        <v>1.6602739726027398</v>
-      </c>
-      <c r="Q70" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="R70" s="39" t="s">
-        <v>456</v>
-      </c>
-      <c r="S70" s="39" t="s">
-        <v>457</v>
-      </c>
-      <c r="T70" s="39" t="s">
-        <v>527</v>
-      </c>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="39"/>
-      <c r="X70" s="39"/>
-    </row>
-    <row r="71" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="D71" s="39" t="s">
-        <v>405</v>
-      </c>
-      <c r="E71" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="F71" s="41"/>
-      <c r="G71" s="40" t="s">
-        <v>639</v>
-      </c>
-      <c r="H71" s="40"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="48">
-        <v>43221</v>
-      </c>
-      <c r="K71" s="47">
-        <v>43343</v>
-      </c>
-      <c r="L71" s="49">
-        <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
-      </c>
-      <c r="M71" s="49">
-        <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2018</v>
-      </c>
-      <c r="N71" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>8</v>
-      </c>
-      <c r="O71" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2018</v>
-      </c>
-      <c r="P71" s="42">
-        <f t="shared" si="3"/>
-        <v>4.0666666666666664</v>
-      </c>
-      <c r="Q71" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="R71" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="S71" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T71" s="39" t="s">
-        <v>640</v>
-      </c>
-      <c r="U71" s="39"/>
-      <c r="V71" s="39"/>
-      <c r="W71" s="39"/>
-      <c r="X71" s="39"/>
-    </row>
-    <row r="72" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="B72" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="D72" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="E72" s="40" t="s">
-        <v>634</v>
-      </c>
-      <c r="F72" s="41" t="s">
-        <v>635</v>
-      </c>
-      <c r="G72" s="40" t="s">
-        <v>633</v>
-      </c>
-      <c r="H72" s="40"/>
-      <c r="I72" s="41" t="s">
-        <v>632</v>
-      </c>
-      <c r="J72" s="47">
-        <v>42856</v>
-      </c>
-      <c r="K72" s="47">
-        <v>42979</v>
-      </c>
-      <c r="L72" s="49">
-        <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
-      </c>
-      <c r="M72" s="49">
-        <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2017</v>
-      </c>
-      <c r="N72" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
-      </c>
-      <c r="O72" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2017</v>
-      </c>
-      <c r="P72" s="42">
-        <f t="shared" si="3"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Q72" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="R72" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="S72" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T72" s="39" t="s">
-        <v>637</v>
-      </c>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39"/>
-    </row>
-    <row r="73" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="B73" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="D73" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="40" t="s">
-        <v>644</v>
-      </c>
-      <c r="H73" s="40"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="47">
-        <v>42795</v>
-      </c>
-      <c r="K73" s="47">
-        <v>42795</v>
-      </c>
-      <c r="L73" s="49">
-        <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>3</v>
-      </c>
-      <c r="M73" s="49">
-        <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2017</v>
-      </c>
-      <c r="N73" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>3</v>
-      </c>
-      <c r="O73" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2017</v>
-      </c>
-      <c r="P73" s="42">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q73" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="R73" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="S73" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T73" s="39" t="s">
-        <v>645</v>
-      </c>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-    </row>
-    <row r="74" spans="1:24" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="39" t="s">
-        <v>489</v>
-      </c>
-      <c r="B74" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="D74" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="E74" s="40" t="s">
-        <v>636</v>
-      </c>
-      <c r="F74" s="41" t="s">
-        <v>631</v>
-      </c>
-      <c r="G74" s="40" t="s">
-        <v>633</v>
-      </c>
-      <c r="H74" s="40"/>
-      <c r="I74" s="41" t="s">
-        <v>632</v>
-      </c>
-      <c r="J74" s="47">
-        <v>42491</v>
-      </c>
-      <c r="K74" s="47">
-        <v>42614</v>
-      </c>
-      <c r="L74" s="49">
-        <f>MONTH(CV[[#This Row],[Start]])</f>
-        <v>5</v>
-      </c>
-      <c r="M74" s="49">
-        <f>YEAR(CV[[#This Row],[Start]])</f>
-        <v>2016</v>
-      </c>
-      <c r="N74" s="49">
-        <f>MONTH(CV[[#This Row],[End]])</f>
-        <v>9</v>
-      </c>
-      <c r="O74" s="49">
-        <f>YEAR(CV[[#This Row],[End]])</f>
-        <v>2016</v>
-      </c>
-      <c r="P74" s="42">
-        <f t="shared" si="3"/>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="Q74" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="R74" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="S74" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="T74" s="39" t="s">
-        <v>638</v>
-      </c>
-      <c r="U74" s="39"/>
-      <c r="V74" s="39"/>
-      <c r="W74" s="39"/>
-      <c r="X74" s="39"/>
+      <c r="Y69" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="K1:O62 L63:O63 K64:O65 K68:O68 K70:O1048576">
-    <cfRule type="timePeriod" dxfId="13" priority="7" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="72" priority="7" timePeriod="today">
       <formula>FLOOR(K1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63">
-    <cfRule type="timePeriod" dxfId="12" priority="3" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="71" priority="3" timePeriod="today">
       <formula>FLOOR(K63,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66:O67">
-    <cfRule type="timePeriod" dxfId="11" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="70" priority="2" timePeriod="today">
       <formula>FLOOR(K66,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:O69">
-    <cfRule type="timePeriod" dxfId="10" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="69" priority="1" timePeriod="today">
       <formula>FLOOR(K69,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="What was the position?" sqref="T2:T59" xr:uid="{DFFB3205-BD66-4B32-A076-E848052A5B1A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tasks" prompt="What did you actually do?" sqref="U2:U74" xr:uid="{5B09CA76-B76C-4EFC-93E7-51ADFF39ECBC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lessons" prompt="What did you learn?" sqref="V2:V74" xr:uid="{08B32566-C755-4266-AD84-F0DF9F2CF7AF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Achievements" prompt="What were you able to accomplish?" sqref="W2:W74" xr:uid="{F198362A-9CD5-4B7D-91B0-5DE89BA44CA6}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C74" xr:uid="{D7AFE9C3-998F-44D9-8631-27D45959B0FA}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tasks" prompt="What did you actually do?" sqref="U2:U69" xr:uid="{5B09CA76-B76C-4EFC-93E7-51ADFF39ECBC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lessons" prompt="What did you learn?" sqref="V2:V69" xr:uid="{08B32566-C755-4266-AD84-F0DF9F2CF7AF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Achievements" prompt="What were you able to accomplish?" sqref="W2:W69" xr:uid="{F198362A-9CD5-4B7D-91B0-5DE89BA44CA6}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C69" xr:uid="{D7AFE9C3-998F-44D9-8631-27D45959B0FA}">
       <formula1>Category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B74" xr:uid="{4C036C20-1026-41D3-A102-75B014022A86}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B69" xr:uid="{4C036C20-1026-41D3-A102-75B014022A86}">
       <formula1>Branch</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D74" xr:uid="{2D12E60C-44BF-4035-9CD9-285BCB7B7676}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D69" xr:uid="{2D12E60C-44BF-4035-9CD9-285BCB7B7676}">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{919D3B29-36CF-49BF-9220-21A510F942D2}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10977,31 +10778,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"Offered"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"Interview"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"Applied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"Incomplete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"Offered-Declined"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>"Offered-Accepted"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>"Interview-Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
       <formula>"No response"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11040,7 +10841,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -11228,7 +11029,7 @@
         <v>409</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>647</v>
+        <v>409</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>403</v>
@@ -11264,7 +11065,7 @@
         <v>409</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>648</v>
+        <v>409</v>
       </c>
       <c r="K6" s="36" t="s">
         <v>184</v>

--- a/cv_data/cv_zmm.xlsx
+++ b/cv_data/cv_zmm.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ecc85ccb002dd88c/Resumes/Git-Hub/Website/zacharymilosmoore/info/cv_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CB44A4F-E1F1-4138-AC98-038A281BC4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{4CB44A4F-E1F1-4138-AC98-038A281BC4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3521462-E2E8-4EF0-95AC-18A18BE926B4}"/>
   <bookViews>
-    <workbookView xWindow="29715" yWindow="4575" windowWidth="12300" windowHeight="6330" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
+    <workbookView xWindow="28680" yWindow="1890" windowWidth="20730" windowHeight="11160" xr2:uid="{4154936E-D054-4D45-B3AE-FD317E846EC6}"/>
+    <workbookView xWindow="28680" yWindow="1890" windowWidth="20730" windowHeight="11160" xr2:uid="{C4941889-2A88-490C-A654-B2598D5B7C97}"/>
   </bookViews>
   <sheets>
     <sheet name="CV" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
     <definedName name="Employment">Lists[Employment]</definedName>
     <definedName name="Event">Lists[Event]</definedName>
     <definedName name="Membership">Lists[Membership]</definedName>
-    <definedName name="Project">Lists[Project]</definedName>
+    <definedName name="Projects">Lists[Project]</definedName>
     <definedName name="Volunteering">Lists[Volunteering]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="661">
   <si>
     <t>Category</t>
   </si>
@@ -2004,13 +2005,49 @@
     <t xml:space="preserve">Awarded in competition of 10 undergraduate students for poster presentation on connecting life history traits and community dynamics. </t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>Organization.Link</t>
-  </si>
-  <si>
     <t>www.umanitoba.ca</t>
+  </si>
+  <si>
+    <t>Org_Link</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Labouring</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V1_Desc</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V2_Desc</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V3_Desc</t>
+  </si>
+  <si>
+    <t>Tritrophic Interactions on an Aphid Farm</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>aphid_farm_fld3</t>
+  </si>
+  <si>
+    <t>V1_Type</t>
+  </si>
+  <si>
+    <t>.jpg</t>
   </si>
 </sst>
 </file>
@@ -2327,7 +2364,123 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="79">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3059,71 +3212,83 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tw Cen MT"/>
+        <family val="2"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3593,34 +3758,6 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="&quot;Present&quot;"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3635,100 +3772,112 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="CV" displayName="CV" ref="A1:Y69" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
-  <autoFilter ref="A1:Y69" xr:uid="{51C5574A-10F4-4984-BAF7-4488D8AC8419}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E6C429B5-94AF-4DF8-8EEB-230783D5C112}" name="CV" displayName="CV" ref="A1:AE71" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77">
+  <autoFilter ref="A1:AE71" xr:uid="{51C5574A-10F4-4984-BAF7-4488D8AC8419}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Projects"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X69">
     <sortCondition descending="1" ref="A2:A69"/>
     <sortCondition ref="C2:C69" customList="Education,Employment,Volunteering,Project,Event,Accreditation,Certificate,Award"/>
     <sortCondition descending="1" ref="J2:J69"/>
   </sortState>
-  <tableColumns count="25">
-    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="66"/>
-    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="65"/>
-    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="64"/>
-    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="62"/>
-    <tableColumn id="24" xr3:uid="{2E4ADD2D-C302-4284-95AA-617479194CFD}" name="Organization.Link" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Pos_Acr" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="55">
+  <tableColumns count="31">
+    <tableColumn id="26" xr3:uid="{9B11C92F-E956-4444-BEFF-953F753416F5}" name="CV" dataDxfId="76"/>
+    <tableColumn id="11" xr3:uid="{34502BA5-FB1E-4B40-8788-421DADDD3E97}" name="Branch" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{70612BCC-1448-430F-9D24-28D063F5A2A3}" name="Category" dataDxfId="74"/>
+    <tableColumn id="18" xr3:uid="{5E4EDA0C-2B9B-42CE-A32B-4403948C8E7B}" name="Type" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{EC86C6DE-554D-4F33-AEC2-DF6E1CA6068F}" name="Organization" dataDxfId="72"/>
+    <tableColumn id="24" xr3:uid="{2E4ADD2D-C302-4284-95AA-617479194CFD}" name="Org_Link" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{26CD9B61-38AB-4312-B98A-E2A336BF9AB7}" name="Org_Acr" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{2BE7F400-F53C-40A9-BB7D-530918FE5571}" name="Title" dataDxfId="69"/>
+    <tableColumn id="10" xr3:uid="{33E88F9D-A2A0-44DD-84D2-308042D95210}" name="Pos_Acr" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{6738E286-0938-42F9-B68F-D49892936B3D}" name="Start" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{F83278BD-725D-4108-95A1-F217E27DC898}" name="End" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{802621DE-7866-4555-8E12-DD03949FA7E7}" name="Start_Month" dataDxfId="65">
       <calculatedColumnFormula>MONTH(CV[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="54">
+    <tableColumn id="20" xr3:uid="{C6566D99-33F8-4C29-9F77-57CB96E0A79F}" name="Start_Year" dataDxfId="64">
       <calculatedColumnFormula>YEAR(CV[[#This Row],[Start]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="53">
+    <tableColumn id="22" xr3:uid="{6BF152A0-7851-42D9-985D-3CC266F2660D}" name="End_Month" dataDxfId="63">
       <calculatedColumnFormula>MONTH(CV[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="52">
+    <tableColumn id="21" xr3:uid="{FEEC95E2-B833-448E-AC76-6DBAE4E45591}" name="End_Year" dataDxfId="62">
       <calculatedColumnFormula>YEAR(CV[[#This Row],[End]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="51">
+    <tableColumn id="5" xr3:uid="{7BB222DF-5EE2-4BC9-9EF1-E1A53AFE31F4}" name="Time" dataDxfId="61">
       <calculatedColumnFormula>IF((Q2="Days"),((K2-J2+1)),IF(Q2="Months",((K2-J2)/30),((K2-J2)/365)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="50"/>
-    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="49"/>
-    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="47"/>
-    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="46"/>
-    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="43"/>
-    <tableColumn id="23" xr3:uid="{4C96C715-152C-4914-BB38-FEFF25E58297}" name="Link" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{436D180E-D520-4622-BF48-C117C2F3D72D}" name="Time_Unit" dataDxfId="60"/>
+    <tableColumn id="14" xr3:uid="{0AC0D461-4004-4A64-B5A7-5BCBB135C7C9}" name="Loc_Small" dataDxfId="59"/>
+    <tableColumn id="15" xr3:uid="{604F7BAB-42A3-455E-8C18-202B68AEBC37}" name="Loc_Large" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{1CAEFFF7-88CF-4AB8-88EF-1DC65D78A14C}" name="Description" dataDxfId="57"/>
+    <tableColumn id="19" xr3:uid="{B4A2DCCB-9505-42D1-97AE-1B44581F30F1}" name="Tasks" dataDxfId="56"/>
+    <tableColumn id="16" xr3:uid="{9AA8F708-1C30-48AB-8EDD-8C5BF442D6ED}" name="Lessons" dataDxfId="55"/>
+    <tableColumn id="17" xr3:uid="{CAB8C078-3C62-4846-9AC3-0B17AD693416}" name="Achievements" dataDxfId="54"/>
+    <tableColumn id="13" xr3:uid="{982B9A83-407B-47DD-AE12-B9AF5B9B6C73}" name="Notes" dataDxfId="53"/>
+    <tableColumn id="23" xr3:uid="{4C96C715-152C-4914-BB38-FEFF25E58297}" name="V1" dataDxfId="52"/>
+    <tableColumn id="25" xr3:uid="{AB48772A-9139-4A74-BF34-9532AF007D28}" name="V1_Desc" dataDxfId="51"/>
+    <tableColumn id="31" xr3:uid="{ABB7B8F1-D658-471C-B518-50B31EDEA024}" name="V1_Type" dataDxfId="0"/>
+    <tableColumn id="27" xr3:uid="{AA368EEC-19E0-4A9A-90A5-B309B7AE3A50}" name="V2" dataDxfId="50"/>
+    <tableColumn id="28" xr3:uid="{65DF71FF-E9EE-4AAB-A467-1B0F813F20A6}" name="V2_Desc" dataDxfId="49"/>
+    <tableColumn id="29" xr3:uid="{C2677FEE-8349-4A02-B596-66E45AD44952}" name="V3" dataDxfId="48"/>
+    <tableColumn id="30" xr3:uid="{1E758BB4-3C89-4653-80DA-C549531B5244}" name="V3_Desc" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B570B70E-C899-455A-AC26-A13A5D4A9E92}" name="Applications" displayName="Applications" ref="A1:N49" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B570B70E-C899-455A-AC26-A13A5D4A9E92}" name="Applications" displayName="Applications" ref="A1:N49" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:N49" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="12" xr3:uid="{218087FE-17C0-423E-B6F8-901859622287}" name="Stage" dataDxfId="30"/>
-    <tableColumn id="13" xr3:uid="{D9613474-92D2-4050-ACF2-B118452426A7}" name="Period" dataDxfId="29"/>
-    <tableColumn id="1" xr3:uid="{5BAA014C-1241-4434-8AD7-745DA50962BB}" name="Application.Date" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{983FF83C-F5E6-4F96-A5C4-E0DE49B59CF1}" name="Closing.Date" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{B6DA3B76-2EA9-477C-916B-C85ABE14EDEA}" name="Organization" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{F810C504-FE42-4544-B62D-AD9215CC2056}" name="Role" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{9092FFA8-86C9-4C39-B086-D49B5605E883}" name="Location" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{82ADB252-CBD3-45E3-93DC-F3E245711EE6}" name="Length" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{D67F4400-95EC-4574-AC0A-5E80B43AE8EA}" name="Pay" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{61429A75-040E-4A75-9265-393C74FD1D63}" name="Contact" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{7F27D872-9FAA-49C7-AD85-D69344560AD6}" name="Title" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{F6EC3991-C4AE-4478-9730-0BDA10018440}" name="Contact.Information" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{64723C84-D17F-4973-A41F-D234D9E037AB}" name="Format" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{C898DE17-6DCD-4913-9793-AC56DC7DDFBB}" name="Notes" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{218087FE-17C0-423E-B6F8-901859622287}" name="Stage" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{D9613474-92D2-4050-ACF2-B118452426A7}" name="Period" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{5BAA014C-1241-4434-8AD7-745DA50962BB}" name="Application.Date" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{983FF83C-F5E6-4F96-A5C4-E0DE49B59CF1}" name="Closing.Date" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{B6DA3B76-2EA9-477C-916B-C85ABE14EDEA}" name="Organization" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{F810C504-FE42-4544-B62D-AD9215CC2056}" name="Role" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{9092FFA8-86C9-4C39-B086-D49B5605E883}" name="Location" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{82ADB252-CBD3-45E3-93DC-F3E245711EE6}" name="Length" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{D67F4400-95EC-4574-AC0A-5E80B43AE8EA}" name="Pay" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{61429A75-040E-4A75-9265-393C74FD1D63}" name="Contact" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{7F27D872-9FAA-49C7-AD85-D69344560AD6}" name="Title" dataDxfId="34"/>
+    <tableColumn id="14" xr3:uid="{F6EC3991-C4AE-4478-9730-0BDA10018440}" name="Contact.Information" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{64723C84-D17F-4973-A41F-D234D9E037AB}" name="Format" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{C898DE17-6DCD-4913-9793-AC56DC7DDFBB}" name="Notes" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="Lists" displayName="Lists" ref="A1:L10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A7031F1-2203-44EF-8965-9D3E7E6E20C7}" name="Lists" displayName="Lists" ref="A1:L10" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="A1:L10" xr:uid="{F02DA2C5-59F4-4989-BB36-1611149FB962}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditation" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Award" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certificate" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Event" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Membership" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Project" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{308CFDE8-BE03-456B-84E3-E26E079B0F80}" name="Branch" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{4D4C6EDC-3308-4CFE-89F0-A12C8F5152D6}" name="Category" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{F8982A44-14CE-484F-B8CB-BB3EC9A5ED07}" name="Accreditation" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{6D21A9C5-BEA7-476E-A983-243C0B9BEC34}" name="Award" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{C1A44E26-D96B-4ADC-A0DE-C7DE9818C883}" name="Certificate" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{5878EC92-DA44-448C-8DFE-354AB46F1B50}" name="Event" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{B8C94F22-10CD-4485-A36C-EF94EFB8544F}" name="Education" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{36320B06-26D8-4E21-A082-28EFC253ECC4}" name="Employment" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{EF5D7AD2-86C4-4842-A36A-B12726CEFC56}" name="Membership" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{F05A780B-4496-4C27-9705-F129B2480E2D}" name="Project" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{8FF5F1B6-1539-487D-A296-90D274FBA601}" name="Volunteering" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{932C090C-7AD8-4B1D-90AE-36BA3B8B76F8}" name="Application.Stage" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3C6FC337-6E2A-45E4-845E-7738AB3E8406}" name="Table4" displayName="Table4" ref="A1:H6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3C6FC337-6E2A-45E4-845E-7738AB3E8406}" name="References.Table" displayName="References.Table" ref="A1:H6" totalsRowShown="0">
   <autoFilter ref="A1:H6" xr:uid="{99AA1CB5-5493-4741-B478-DD055116D70C}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C169D403-73CA-4D7B-99CA-B283C72909A6}" name="Name"/>
@@ -4041,13 +4190,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6961E3D5-6E55-490E-8BC2-FDE92C6153D9}">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:AE71"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="AA71" sqref="AA71"/>
+    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="1">
+      <selection activeCell="Z71" sqref="Z71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4073,10 +4225,11 @@
     <col min="20" max="22" width="40.6640625" style="7" customWidth="1"/>
     <col min="23" max="24" width="40.6640625" style="2" customWidth="1"/>
     <col min="25" max="25" width="16.88671875" style="2" customWidth="1"/>
-    <col min="26" max="16384" width="8.6640625" style="2"/>
+    <col min="26" max="27" width="16.5546875" style="2" customWidth="1"/>
+    <col min="28" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="17.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>488</v>
       </c>
@@ -4150,10 +4303,28 @@
         <v>10</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="52.8" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>489</v>
       </c>
@@ -4170,7 +4341,7 @@
         <v>451</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G2" s="41" t="s">
         <v>452</v>
@@ -4226,8 +4397,14 @@
       </c>
       <c r="X2" s="39"/>
       <c r="Y2" s="39"/>
-    </row>
-    <row r="3" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+    </row>
+    <row r="3" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>489</v>
       </c>
@@ -4298,8 +4475,14 @@
       <c r="W3" s="39"/>
       <c r="X3" s="39"/>
       <c r="Y3" s="39"/>
-    </row>
-    <row r="4" spans="1:25" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+    </row>
+    <row r="4" spans="1:31" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>489</v>
       </c>
@@ -4374,8 +4557,14 @@
       </c>
       <c r="X4" s="39"/>
       <c r="Y4" s="39"/>
-    </row>
-    <row r="5" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+    </row>
+    <row r="5" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>489</v>
       </c>
@@ -4442,8 +4631,14 @@
       <c r="W5" s="39"/>
       <c r="X5" s="39"/>
       <c r="Y5" s="39"/>
-    </row>
-    <row r="6" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+    </row>
+    <row r="6" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>489</v>
       </c>
@@ -4510,8 +4705,14 @@
       <c r="W6" s="39"/>
       <c r="X6" s="39"/>
       <c r="Y6" s="39"/>
-    </row>
-    <row r="7" spans="1:25" ht="132" x14ac:dyDescent="0.3">
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+    </row>
+    <row r="7" spans="1:31" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>489</v>
       </c>
@@ -4586,8 +4787,14 @@
         <v>528</v>
       </c>
       <c r="Y7" s="39"/>
-    </row>
-    <row r="8" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+    </row>
+    <row r="8" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>489</v>
       </c>
@@ -4656,8 +4863,14 @@
       <c r="W8" s="39"/>
       <c r="X8" s="39"/>
       <c r="Y8" s="39"/>
-    </row>
-    <row r="9" spans="1:25" ht="66" x14ac:dyDescent="0.3">
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+    </row>
+    <row r="9" spans="1:31" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>489</v>
       </c>
@@ -4726,8 +4939,14 @@
       </c>
       <c r="X9" s="39"/>
       <c r="Y9" s="39"/>
-    </row>
-    <row r="10" spans="1:25" ht="132" x14ac:dyDescent="0.3">
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+    </row>
+    <row r="10" spans="1:31" ht="132" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>489</v>
       </c>
@@ -4796,8 +5015,14 @@
       <c r="W10" s="39"/>
       <c r="X10" s="39"/>
       <c r="Y10" s="39"/>
-    </row>
-    <row r="11" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+    </row>
+    <row r="11" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="39" t="s">
         <v>489</v>
       </c>
@@ -4866,8 +5091,14 @@
       <c r="W11" s="39"/>
       <c r="X11" s="39"/>
       <c r="Y11" s="39"/>
-    </row>
-    <row r="12" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+    </row>
+    <row r="12" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>489</v>
       </c>
@@ -4938,8 +5169,14 @@
       <c r="W12" s="39"/>
       <c r="X12" s="39"/>
       <c r="Y12" s="39"/>
-    </row>
-    <row r="13" spans="1:25" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+    </row>
+    <row r="13" spans="1:31" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>489</v>
       </c>
@@ -5012,8 +5249,14 @@
       </c>
       <c r="X13" s="39"/>
       <c r="Y13" s="39"/>
-    </row>
-    <row r="14" spans="1:25" ht="66" x14ac:dyDescent="0.3">
+      <c r="Z13" s="39"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+    </row>
+    <row r="14" spans="1:31" ht="79.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="39" t="s">
         <v>489</v>
       </c>
@@ -5086,8 +5329,14 @@
         <v>115</v>
       </c>
       <c r="Y14" s="39"/>
-    </row>
-    <row r="15" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z14" s="39"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+    </row>
+    <row r="15" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="39" t="s">
         <v>489</v>
       </c>
@@ -5156,8 +5405,14 @@
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
-    </row>
-    <row r="16" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z15" s="39"/>
+      <c r="AA15" s="39"/>
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+    </row>
+    <row r="16" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39" t="s">
         <v>489</v>
       </c>
@@ -5228,8 +5483,14 @@
       </c>
       <c r="X16" s="39"/>
       <c r="Y16" s="39"/>
-    </row>
-    <row r="17" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+    </row>
+    <row r="17" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>489</v>
       </c>
@@ -5258,7 +5519,7 @@
       </c>
       <c r="K17" s="47">
         <f ca="1">NOW()</f>
-        <v>44452.574539583336</v>
+        <v>44452.634840509258</v>
       </c>
       <c r="L17" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -5278,7 +5539,7 @@
       </c>
       <c r="P17" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>19.685817986111214</v>
+        <v>19.687828016975253</v>
       </c>
       <c r="Q17" s="39" t="s">
         <v>30</v>
@@ -5299,8 +5560,14 @@
       <c r="W17" s="39"/>
       <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
-    </row>
-    <row r="18" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z17" s="39"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+    </row>
+    <row r="18" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="39" t="s">
         <v>489</v>
       </c>
@@ -5367,8 +5634,14 @@
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
       <c r="Y18" s="39"/>
-    </row>
-    <row r="19" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+    </row>
+    <row r="19" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>489</v>
       </c>
@@ -5439,8 +5712,14 @@
       <c r="W19" s="39"/>
       <c r="X19" s="39"/>
       <c r="Y19" s="39"/>
-    </row>
-    <row r="20" spans="1:25" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+    </row>
+    <row r="20" spans="1:31" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>489</v>
       </c>
@@ -5471,7 +5750,7 @@
       </c>
       <c r="K20" s="47">
         <f ca="1">NOW()</f>
-        <v>44452.574539583336</v>
+        <v>44452.634840509258</v>
       </c>
       <c r="L20" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -5491,7 +5770,7 @@
       </c>
       <c r="P20" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>24.119151319444548</v>
+        <v>24.121161350308586</v>
       </c>
       <c r="Q20" s="39" t="s">
         <v>30</v>
@@ -5512,8 +5791,14 @@
       <c r="W20" s="39"/>
       <c r="X20" s="39"/>
       <c r="Y20" s="39"/>
-    </row>
-    <row r="21" spans="1:25" ht="66" x14ac:dyDescent="0.3">
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+    </row>
+    <row r="21" spans="1:31" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>489</v>
       </c>
@@ -5584,8 +5869,14 @@
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
-    </row>
-    <row r="22" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+    </row>
+    <row r="22" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39" t="s">
         <v>489</v>
       </c>
@@ -5654,8 +5945,14 @@
       </c>
       <c r="X22" s="39"/>
       <c r="Y22" s="39"/>
-    </row>
-    <row r="23" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+    </row>
+    <row r="23" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>489</v>
       </c>
@@ -5724,8 +6021,14 @@
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
       <c r="Y23" s="39"/>
-    </row>
-    <row r="24" spans="1:25" ht="66" x14ac:dyDescent="0.3">
+      <c r="Z23" s="39"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+    </row>
+    <row r="24" spans="1:31" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39" t="s">
         <v>489</v>
       </c>
@@ -5800,8 +6103,14 @@
         <v>487</v>
       </c>
       <c r="Y24" s="39"/>
-    </row>
-    <row r="25" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="39"/>
+    </row>
+    <row r="25" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39" t="s">
         <v>489</v>
       </c>
@@ -5872,8 +6181,14 @@
       <c r="W25" s="39"/>
       <c r="X25" s="39"/>
       <c r="Y25" s="39"/>
-    </row>
-    <row r="26" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="39"/>
+    </row>
+    <row r="26" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>489</v>
       </c>
@@ -5940,8 +6255,14 @@
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
       <c r="Y26" s="39"/>
-    </row>
-    <row r="27" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="39"/>
+    </row>
+    <row r="27" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39" t="s">
         <v>489</v>
       </c>
@@ -6008,8 +6329,14 @@
       <c r="W27" s="39"/>
       <c r="X27" s="39"/>
       <c r="Y27" s="39"/>
-    </row>
-    <row r="28" spans="1:25" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+    </row>
+    <row r="28" spans="1:31" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A28" s="39" t="s">
         <v>489</v>
       </c>
@@ -6017,7 +6344,7 @@
         <v>46</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>358</v>
+        <v>648</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>33</v>
@@ -6084,8 +6411,14 @@
       </c>
       <c r="X28" s="39"/>
       <c r="Y28" s="39"/>
-    </row>
-    <row r="29" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="39"/>
+    </row>
+    <row r="29" spans="1:31" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>489</v>
       </c>
@@ -6093,7 +6426,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>358</v>
+        <v>648</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>406</v>
@@ -6150,8 +6483,14 @@
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
       <c r="Y29" s="39"/>
-    </row>
-    <row r="30" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="39"/>
+    </row>
+    <row r="30" spans="1:31" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>489</v>
       </c>
@@ -6159,7 +6498,7 @@
         <v>160</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>358</v>
+        <v>648</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>410</v>
@@ -6218,8 +6557,14 @@
       <c r="W30" s="39"/>
       <c r="X30" s="39"/>
       <c r="Y30" s="39"/>
-    </row>
-    <row r="31" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="39"/>
+    </row>
+    <row r="31" spans="1:31" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>489</v>
       </c>
@@ -6227,7 +6572,7 @@
         <v>160</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>358</v>
+        <v>648</v>
       </c>
       <c r="D31" s="39" t="s">
         <v>410</v>
@@ -6286,8 +6631,14 @@
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
       <c r="Y31" s="39"/>
-    </row>
-    <row r="32" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="39"/>
+    </row>
+    <row r="32" spans="1:31" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
         <v>489</v>
       </c>
@@ -6295,7 +6646,7 @@
         <v>160</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>358</v>
+        <v>648</v>
       </c>
       <c r="D32" s="39" t="s">
         <v>410</v>
@@ -6352,8 +6703,14 @@
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
       <c r="Y32" s="39"/>
-    </row>
-    <row r="33" spans="1:25" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="39"/>
+    </row>
+    <row r="33" spans="1:31" ht="52.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="39" t="s">
         <v>489</v>
       </c>
@@ -6422,8 +6779,14 @@
       </c>
       <c r="X33" s="39"/>
       <c r="Y33" s="39"/>
-    </row>
-    <row r="34" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39"/>
+    </row>
+    <row r="34" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="39" t="s">
         <v>489</v>
       </c>
@@ -6490,8 +6853,14 @@
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
       <c r="Y34" s="39"/>
-    </row>
-    <row r="35" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+    </row>
+    <row r="35" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
         <v>489</v>
       </c>
@@ -6558,8 +6927,14 @@
       <c r="W35" s="39"/>
       <c r="X35" s="39"/>
       <c r="Y35" s="39"/>
-    </row>
-    <row r="36" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+    </row>
+    <row r="36" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
         <v>489</v>
       </c>
@@ -6626,8 +7001,14 @@
       <c r="W36" s="39"/>
       <c r="X36" s="39"/>
       <c r="Y36" s="39"/>
-    </row>
-    <row r="37" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+    </row>
+    <row r="37" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="39" t="s">
         <v>489</v>
       </c>
@@ -6658,7 +7039,7 @@
       </c>
       <c r="K37" s="47">
         <f t="shared" ref="K37:K43" ca="1" si="2">NOW()</f>
-        <v>44452.574539583336</v>
+        <v>44452.634840509258</v>
       </c>
       <c r="L37" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -6678,7 +7059,7 @@
       </c>
       <c r="P37" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>16.685817986111214</v>
+        <v>16.687828016975253</v>
       </c>
       <c r="Q37" s="39" t="s">
         <v>30</v>
@@ -6697,8 +7078,14 @@
         <v>384</v>
       </c>
       <c r="Y37" s="39"/>
-    </row>
-    <row r="38" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+    </row>
+    <row r="38" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
         <v>489</v>
       </c>
@@ -6729,7 +7116,7 @@
       </c>
       <c r="K38" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44452.574539583336</v>
+        <v>44452.634840509258</v>
       </c>
       <c r="L38" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -6749,7 +7136,7 @@
       </c>
       <c r="P38" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4563686015981818</v>
+        <v>2.4565338096144043</v>
       </c>
       <c r="Q38" s="39" t="s">
         <v>31</v>
@@ -6768,8 +7155,14 @@
         <v>12</v>
       </c>
       <c r="Y38" s="39"/>
-    </row>
-    <row r="39" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+      <c r="AC38" s="39"/>
+      <c r="AD38" s="39"/>
+      <c r="AE38" s="39"/>
+    </row>
+    <row r="39" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>489</v>
       </c>
@@ -6798,7 +7191,7 @@
       </c>
       <c r="K39" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44452.574539583336</v>
+        <v>44452.634840509258</v>
       </c>
       <c r="L39" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -6818,7 +7211,7 @@
       </c>
       <c r="P39" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>23.95248465277788</v>
+        <v>23.954494683641922</v>
       </c>
       <c r="Q39" s="39" t="s">
         <v>30</v>
@@ -6837,8 +7230,14 @@
       <c r="W39" s="39"/>
       <c r="X39" s="39"/>
       <c r="Y39" s="39"/>
-    </row>
-    <row r="40" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+      <c r="AC39" s="39"/>
+      <c r="AD39" s="39"/>
+      <c r="AE39" s="39"/>
+    </row>
+    <row r="40" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
         <v>489</v>
       </c>
@@ -6867,7 +7266,7 @@
       </c>
       <c r="K40" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44452.574539583336</v>
+        <v>44452.634840509258</v>
       </c>
       <c r="L40" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -6887,7 +7286,7 @@
       </c>
       <c r="P40" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>32.885817986111213</v>
+        <v>32.887828016975256</v>
       </c>
       <c r="Q40" s="39" t="s">
         <v>30</v>
@@ -6906,8 +7305,14 @@
       <c r="W40" s="39"/>
       <c r="X40" s="39"/>
       <c r="Y40" s="39"/>
-    </row>
-    <row r="41" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39"/>
+    </row>
+    <row r="41" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
         <v>489</v>
       </c>
@@ -6938,7 +7343,7 @@
       </c>
       <c r="K41" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44452.574539583336</v>
+        <v>44452.634840509258</v>
       </c>
       <c r="L41" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -6958,7 +7363,7 @@
       </c>
       <c r="P41" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>33.919151319444545</v>
+        <v>33.921161350308587</v>
       </c>
       <c r="Q41" s="39" t="s">
         <v>30</v>
@@ -6977,8 +7382,14 @@
       <c r="W41" s="39"/>
       <c r="X41" s="39"/>
       <c r="Y41" s="39"/>
-    </row>
-    <row r="42" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+    </row>
+    <row r="42" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="39" t="s">
         <v>489</v>
       </c>
@@ -7007,7 +7418,7 @@
       </c>
       <c r="K42" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44452.574539583336</v>
+        <v>44452.634840509258</v>
       </c>
       <c r="L42" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -7027,7 +7438,7 @@
       </c>
       <c r="P42" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>35.952484652777883</v>
+        <v>35.954494683641919</v>
       </c>
       <c r="Q42" s="39" t="s">
         <v>30</v>
@@ -7046,8 +7457,14 @@
       <c r="W42" s="39"/>
       <c r="X42" s="39"/>
       <c r="Y42" s="39"/>
-    </row>
-    <row r="43" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="39"/>
+    </row>
+    <row r="43" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
         <v>489</v>
       </c>
@@ -7076,7 +7493,7 @@
       </c>
       <c r="K43" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>44452.574539583336</v>
+        <v>44452.634840509258</v>
       </c>
       <c r="L43" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -7096,7 +7513,7 @@
       </c>
       <c r="P43" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>35.952484652777883</v>
+        <v>35.954494683641919</v>
       </c>
       <c r="Q43" s="39" t="s">
         <v>30</v>
@@ -7115,8 +7532,14 @@
       <c r="W43" s="39"/>
       <c r="X43" s="39"/>
       <c r="Y43" s="39"/>
-    </row>
-    <row r="44" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z43" s="39"/>
+      <c r="AA43" s="39"/>
+      <c r="AB43" s="39"/>
+      <c r="AC43" s="39"/>
+      <c r="AD43" s="39"/>
+      <c r="AE43" s="39"/>
+    </row>
+    <row r="44" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="39" t="s">
         <v>489</v>
       </c>
@@ -7185,8 +7608,14 @@
       <c r="W44" s="39"/>
       <c r="X44" s="39"/>
       <c r="Y44" s="39"/>
-    </row>
-    <row r="45" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z44" s="39"/>
+      <c r="AA44" s="39"/>
+      <c r="AB44" s="39"/>
+      <c r="AC44" s="39"/>
+      <c r="AD44" s="39"/>
+      <c r="AE44" s="39"/>
+    </row>
+    <row r="45" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="39" t="s">
         <v>489</v>
       </c>
@@ -7251,8 +7680,14 @@
       <c r="W45" s="39"/>
       <c r="X45" s="39"/>
       <c r="Y45" s="39"/>
-    </row>
-    <row r="46" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="39"/>
+      <c r="AB45" s="39"/>
+      <c r="AC45" s="39"/>
+      <c r="AD45" s="39"/>
+      <c r="AE45" s="39"/>
+    </row>
+    <row r="46" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
         <v>489</v>
       </c>
@@ -7321,8 +7756,14 @@
       <c r="W46" s="39"/>
       <c r="X46" s="39"/>
       <c r="Y46" s="39"/>
-    </row>
-    <row r="47" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z46" s="39"/>
+      <c r="AA46" s="39"/>
+      <c r="AB46" s="39"/>
+      <c r="AC46" s="39"/>
+      <c r="AD46" s="39"/>
+      <c r="AE46" s="39"/>
+    </row>
+    <row r="47" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="39" t="s">
         <v>489</v>
       </c>
@@ -7389,8 +7830,14 @@
       <c r="W47" s="39"/>
       <c r="X47" s="39"/>
       <c r="Y47" s="39"/>
-    </row>
-    <row r="48" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+    </row>
+    <row r="48" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="39" t="s">
         <v>489</v>
       </c>
@@ -7459,8 +7906,14 @@
       <c r="W48" s="39"/>
       <c r="X48" s="39"/>
       <c r="Y48" s="39"/>
-    </row>
-    <row r="49" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z48" s="39"/>
+      <c r="AA48" s="39"/>
+      <c r="AB48" s="39"/>
+      <c r="AC48" s="39"/>
+      <c r="AD48" s="39"/>
+      <c r="AE48" s="39"/>
+    </row>
+    <row r="49" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
         <v>490</v>
       </c>
@@ -7521,8 +7974,14 @@
       <c r="W49" s="39"/>
       <c r="X49" s="39"/>
       <c r="Y49" s="39"/>
-    </row>
-    <row r="50" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z49" s="39"/>
+      <c r="AA49" s="39"/>
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="39"/>
+      <c r="AD49" s="39"/>
+      <c r="AE49" s="39"/>
+    </row>
+    <row r="50" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="39" t="s">
         <v>490</v>
       </c>
@@ -7587,8 +8046,14 @@
       <c r="W50" s="39"/>
       <c r="X50" s="39"/>
       <c r="Y50" s="39"/>
-    </row>
-    <row r="51" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z50" s="39"/>
+      <c r="AA50" s="39"/>
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="39"/>
+      <c r="AD50" s="39"/>
+      <c r="AE50" s="39"/>
+    </row>
+    <row r="51" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="39" t="s">
         <v>490</v>
       </c>
@@ -7657,8 +8122,14 @@
       <c r="W51" s="39"/>
       <c r="X51" s="39"/>
       <c r="Y51" s="39"/>
-    </row>
-    <row r="52" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z51" s="39"/>
+      <c r="AA51" s="39"/>
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="39"/>
+      <c r="AD51" s="39"/>
+      <c r="AE51" s="39"/>
+    </row>
+    <row r="52" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="39" t="s">
         <v>490</v>
       </c>
@@ -7725,8 +8196,14 @@
       <c r="W52" s="39"/>
       <c r="X52" s="39"/>
       <c r="Y52" s="39"/>
-    </row>
-    <row r="53" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+    </row>
+    <row r="53" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="39" t="s">
         <v>490</v>
       </c>
@@ -7791,8 +8268,14 @@
       <c r="W53" s="39"/>
       <c r="X53" s="39"/>
       <c r="Y53" s="39"/>
-    </row>
-    <row r="54" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+    </row>
+    <row r="54" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="39" t="s">
         <v>490</v>
       </c>
@@ -7857,8 +8340,14 @@
       <c r="W54" s="39"/>
       <c r="X54" s="39"/>
       <c r="Y54" s="39"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z54" s="39"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="39"/>
+    </row>
+    <row r="55" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="39" t="s">
         <v>490</v>
       </c>
@@ -7917,8 +8406,14 @@
       <c r="W55" s="39"/>
       <c r="X55" s="39"/>
       <c r="Y55" s="39"/>
-    </row>
-    <row r="56" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+    </row>
+    <row r="56" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="39" t="s">
         <v>490</v>
       </c>
@@ -7985,8 +8480,14 @@
       <c r="W56" s="39"/>
       <c r="X56" s="39"/>
       <c r="Y56" s="39"/>
-    </row>
-    <row r="57" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AE56" s="39"/>
+    </row>
+    <row r="57" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="39" t="s">
         <v>490</v>
       </c>
@@ -8055,8 +8556,14 @@
       <c r="W57" s="39"/>
       <c r="X57" s="39"/>
       <c r="Y57" s="39"/>
-    </row>
-    <row r="58" spans="1:25" ht="66" x14ac:dyDescent="0.3">
+      <c r="Z57" s="39"/>
+      <c r="AA57" s="39"/>
+      <c r="AB57" s="39"/>
+      <c r="AC57" s="39"/>
+      <c r="AD57" s="39"/>
+      <c r="AE57" s="39"/>
+    </row>
+    <row r="58" spans="1:31" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="39" t="s">
         <v>490</v>
       </c>
@@ -8125,13 +8632,19 @@
       <c r="W58" s="39"/>
       <c r="X58" s="39"/>
       <c r="Y58" s="39"/>
-    </row>
-    <row r="59" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z58" s="39"/>
+      <c r="AA58" s="39"/>
+      <c r="AB58" s="39"/>
+      <c r="AC58" s="39"/>
+      <c r="AD58" s="39"/>
+      <c r="AE58" s="39"/>
+    </row>
+    <row r="59" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="39" t="s">
         <v>490</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>71</v>
+        <v>649</v>
       </c>
       <c r="C59" s="39" t="s">
         <v>33</v>
@@ -8191,8 +8704,14 @@
       <c r="W59" s="39"/>
       <c r="X59" s="39"/>
       <c r="Y59" s="39"/>
-    </row>
-    <row r="60" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z59" s="39"/>
+      <c r="AA59" s="39"/>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="39"/>
+      <c r="AD59" s="39"/>
+      <c r="AE59" s="39"/>
+    </row>
+    <row r="60" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="39" t="s">
         <v>490</v>
       </c>
@@ -8257,8 +8776,14 @@
       <c r="W60" s="39"/>
       <c r="X60" s="39"/>
       <c r="Y60" s="39"/>
-    </row>
-    <row r="61" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z60" s="39"/>
+      <c r="AA60" s="39"/>
+      <c r="AB60" s="39"/>
+      <c r="AC60" s="39"/>
+      <c r="AD60" s="39"/>
+      <c r="AE60" s="39"/>
+    </row>
+    <row r="61" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="39" t="s">
         <v>490</v>
       </c>
@@ -8325,8 +8850,14 @@
       <c r="W61" s="39"/>
       <c r="X61" s="39"/>
       <c r="Y61" s="39"/>
-    </row>
-    <row r="62" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z61" s="39"/>
+      <c r="AA61" s="39"/>
+      <c r="AB61" s="39"/>
+      <c r="AC61" s="39"/>
+      <c r="AD61" s="39"/>
+      <c r="AE61" s="39"/>
+    </row>
+    <row r="62" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="39" t="s">
         <v>490</v>
       </c>
@@ -8391,8 +8922,14 @@
       <c r="W62" s="39"/>
       <c r="X62" s="39"/>
       <c r="Y62" s="39"/>
-    </row>
-    <row r="63" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z62" s="39"/>
+      <c r="AA62" s="39"/>
+      <c r="AB62" s="39"/>
+      <c r="AC62" s="39"/>
+      <c r="AD62" s="39"/>
+      <c r="AE62" s="39"/>
+    </row>
+    <row r="63" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="39" t="s">
         <v>490</v>
       </c>
@@ -8459,8 +8996,14 @@
       <c r="W63" s="39"/>
       <c r="X63" s="39"/>
       <c r="Y63" s="39"/>
-    </row>
-    <row r="64" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z63" s="39"/>
+      <c r="AA63" s="39"/>
+      <c r="AB63" s="39"/>
+      <c r="AC63" s="39"/>
+      <c r="AD63" s="39"/>
+      <c r="AE63" s="39"/>
+    </row>
+    <row r="64" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="39" t="s">
         <v>490</v>
       </c>
@@ -8527,8 +9070,14 @@
         <v>491</v>
       </c>
       <c r="Y64" s="39"/>
-    </row>
-    <row r="65" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z64" s="39"/>
+      <c r="AA64" s="39"/>
+      <c r="AB64" s="39"/>
+      <c r="AC64" s="39"/>
+      <c r="AD64" s="39"/>
+      <c r="AE64" s="39"/>
+    </row>
+    <row r="65" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="39" t="s">
         <v>490</v>
       </c>
@@ -8557,7 +9106,7 @@
       </c>
       <c r="K65" s="47">
         <f ca="1">NOW()</f>
-        <v>44452.574539583336</v>
+        <v>44452.634840509258</v>
       </c>
       <c r="L65" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -8577,7 +9126,7 @@
       </c>
       <c r="P65" s="42">
         <f t="shared" ca="1" si="1"/>
-        <v>28.885817986111213</v>
+        <v>28.887828016975256</v>
       </c>
       <c r="Q65" s="39" t="s">
         <v>30</v>
@@ -8596,8 +9145,14 @@
         <v>386</v>
       </c>
       <c r="Y65" s="39"/>
-    </row>
-    <row r="66" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z65" s="39"/>
+      <c r="AA65" s="39"/>
+      <c r="AB65" s="39"/>
+      <c r="AC65" s="39"/>
+      <c r="AD65" s="39"/>
+      <c r="AE65" s="39"/>
+    </row>
+    <row r="66" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="39" t="s">
         <v>490</v>
       </c>
@@ -8626,7 +9181,7 @@
       </c>
       <c r="K66" s="47">
         <f ca="1">NOW()</f>
-        <v>44452.574539583336</v>
+        <v>44452.634840509258</v>
       </c>
       <c r="L66" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -8646,7 +9201,7 @@
       </c>
       <c r="P66" s="42">
         <f t="shared" ref="P66:P69" ca="1" si="3">IF((Q66="Days"),((K66-J66+1)),IF(Q66="Months",((K66-J66)/30),((K66-J66)/365)))</f>
-        <v>35.952484652777883</v>
+        <v>35.954494683641919</v>
       </c>
       <c r="Q66" s="39" t="s">
         <v>30</v>
@@ -8665,13 +9220,19 @@
       <c r="W66" s="39"/>
       <c r="X66" s="39"/>
       <c r="Y66" s="39"/>
-    </row>
-    <row r="67" spans="1:25" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="Z66" s="39"/>
+      <c r="AA66" s="39"/>
+      <c r="AB66" s="39"/>
+      <c r="AC66" s="39"/>
+      <c r="AD66" s="39"/>
+      <c r="AE66" s="39"/>
+    </row>
+    <row r="67" spans="1:31" ht="39.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="39" t="s">
         <v>490</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>71</v>
+        <v>649</v>
       </c>
       <c r="C67" s="39" t="s">
         <v>397</v>
@@ -8731,8 +9292,14 @@
       <c r="W67" s="39"/>
       <c r="X67" s="39"/>
       <c r="Y67" s="39"/>
-    </row>
-    <row r="68" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z67" s="39"/>
+      <c r="AA67" s="39"/>
+      <c r="AB67" s="39"/>
+      <c r="AC67" s="39"/>
+      <c r="AD67" s="39"/>
+      <c r="AE67" s="39"/>
+    </row>
+    <row r="68" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="39" t="s">
         <v>490</v>
       </c>
@@ -8799,8 +9366,14 @@
       <c r="W68" s="39"/>
       <c r="X68" s="39"/>
       <c r="Y68" s="39"/>
-    </row>
-    <row r="69" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Z68" s="39"/>
+      <c r="AA68" s="39"/>
+      <c r="AB68" s="39"/>
+      <c r="AC68" s="39"/>
+      <c r="AD68" s="39"/>
+      <c r="AE68" s="39"/>
+    </row>
+    <row r="69" spans="1:31" ht="26.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="39" t="s">
         <v>490</v>
       </c>
@@ -8827,7 +9400,7 @@
       </c>
       <c r="K69" s="47">
         <f ca="1">NOW()</f>
-        <v>44452.574539583336</v>
+        <v>44452.634840509258</v>
       </c>
       <c r="L69" s="49">
         <f>MONTH(CV[[#This Row],[Start]])</f>
@@ -8847,7 +9420,7 @@
       </c>
       <c r="P69" s="42">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2097932591324287</v>
+        <v>9.2099584671486507</v>
       </c>
       <c r="Q69" s="39" t="s">
         <v>31</v>
@@ -8866,41 +9439,163 @@
       <c r="W69" s="39"/>
       <c r="X69" s="39"/>
       <c r="Y69" s="39"/>
+      <c r="Z69" s="39"/>
+      <c r="AA69" s="39"/>
+      <c r="AB69" s="39"/>
+      <c r="AC69" s="39"/>
+      <c r="AD69" s="39"/>
+      <c r="AE69" s="39"/>
+    </row>
+    <row r="70" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="40"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="49">
+        <f>MONTH(CV[[#This Row],[Start]])</f>
+        <v>1</v>
+      </c>
+      <c r="M70" s="49">
+        <f>YEAR(CV[[#This Row],[Start]])</f>
+        <v>1900</v>
+      </c>
+      <c r="N70" s="49">
+        <f>MONTH(CV[[#This Row],[End]])</f>
+        <v>1</v>
+      </c>
+      <c r="O70" s="49">
+        <f>YEAR(CV[[#This Row],[End]])</f>
+        <v>1900</v>
+      </c>
+      <c r="P70" s="42">
+        <f>IF((Q70="Days"),((K70-J70+1)),IF(Q70="Months",((K70-J70)/30),((K70-J70)/365)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="39"/>
+      <c r="R70" s="39"/>
+      <c r="S70" s="39"/>
+      <c r="T70" s="39"/>
+      <c r="U70" s="39"/>
+      <c r="V70" s="39"/>
+      <c r="W70" s="39"/>
+      <c r="X70" s="39"/>
+      <c r="Y70" s="39"/>
+      <c r="Z70" s="39"/>
+      <c r="AA70" s="39"/>
+      <c r="AB70" s="39"/>
+      <c r="AC70" s="39"/>
+      <c r="AD70" s="39"/>
+      <c r="AE70" s="39"/>
+    </row>
+    <row r="71" spans="1:31" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>648</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="E71" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="40"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="40" t="s">
+        <v>656</v>
+      </c>
+      <c r="I71" s="41"/>
+      <c r="J71" s="48"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="49">
+        <f>MONTH(CV[[#This Row],[Start]])</f>
+        <v>1</v>
+      </c>
+      <c r="M71" s="49">
+        <f>YEAR(CV[[#This Row],[Start]])</f>
+        <v>1900</v>
+      </c>
+      <c r="N71" s="49">
+        <f>MONTH(CV[[#This Row],[End]])</f>
+        <v>1</v>
+      </c>
+      <c r="O71" s="49">
+        <f>YEAR(CV[[#This Row],[End]])</f>
+        <v>1900</v>
+      </c>
+      <c r="P71" s="42">
+        <f>IF((Q71="Days"),((K71-J71+1)),IF(Q71="Months",((K71-J71)/30),((K71-J71)/365)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="39"/>
+      <c r="R71" s="39"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="39"/>
+      <c r="U71" s="39"/>
+      <c r="V71" s="39"/>
+      <c r="W71" s="39"/>
+      <c r="X71" s="39"/>
+      <c r="Y71" s="39" t="s">
+        <v>658</v>
+      </c>
+      <c r="Z71" s="39" t="s">
+        <v>657</v>
+      </c>
+      <c r="AA71" s="39" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB71" s="39"/>
+      <c r="AC71" s="39"/>
+      <c r="AD71" s="39"/>
+      <c r="AE71" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="K1:O62 L63:O63 K64:O65 K68:O68 K70:O1048576">
-    <cfRule type="timePeriod" dxfId="72" priority="7" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="13" priority="7" timePeriod="today">
       <formula>FLOOR(K1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63">
-    <cfRule type="timePeriod" dxfId="71" priority="3" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="12" priority="3" timePeriod="today">
       <formula>FLOOR(K63,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66:O67">
-    <cfRule type="timePeriod" dxfId="70" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="11" priority="2" timePeriod="today">
       <formula>FLOOR(K66,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K69:O69">
-    <cfRule type="timePeriod" dxfId="69" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="10" priority="1" timePeriod="today">
       <formula>FLOOR(K69,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Description" prompt="What was the position?" sqref="T2:T59" xr:uid="{DFFB3205-BD66-4B32-A076-E848052A5B1A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tasks" prompt="What did you actually do?" sqref="U2:U69" xr:uid="{5B09CA76-B76C-4EFC-93E7-51ADFF39ECBC}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lessons" prompt="What did you learn?" sqref="V2:V69" xr:uid="{08B32566-C755-4266-AD84-F0DF9F2CF7AF}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Achievements" prompt="What were you able to accomplish?" sqref="W2:W69" xr:uid="{F198362A-9CD5-4B7D-91B0-5DE89BA44CA6}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C69" xr:uid="{D7AFE9C3-998F-44D9-8631-27D45959B0FA}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Tasks" prompt="What did you actually do?" sqref="U2:U71" xr:uid="{5B09CA76-B76C-4EFC-93E7-51ADFF39ECBC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lessons" prompt="What did you learn?" sqref="V2:V71" xr:uid="{08B32566-C755-4266-AD84-F0DF9F2CF7AF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Achievements" prompt="What were you able to accomplish?" sqref="W2:W71" xr:uid="{F198362A-9CD5-4B7D-91B0-5DE89BA44CA6}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C71" xr:uid="{D7AFE9C3-998F-44D9-8631-27D45959B0FA}">
       <formula1>Category</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B69" xr:uid="{4C036C20-1026-41D3-A102-75B014022A86}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B71" xr:uid="{4C036C20-1026-41D3-A102-75B014022A86}">
       <formula1>Branch</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D69" xr:uid="{2D12E60C-44BF-4035-9CD9-285BCB7B7676}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D71" xr:uid="{2D12E60C-44BF-4035-9CD9-285BCB7B7676}">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8922,6 +9617,7 @@
     <sheetView showGridLines="0" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M45" sqref="M45"/>
     </sheetView>
+    <sheetView showGridLines="0" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10778,31 +11474,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A49">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Offered"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Interview"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Applied"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Incomplete"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Offered-Declined"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Offered-Accepted"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Interview-Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"Rejected"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"No response"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10841,7 +11537,10 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="1">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.2" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10890,7 +11589,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>71</v>
+        <v>649</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>9</v>
@@ -11117,7 +11816,7 @@
         <v>160</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>358</v>
+        <v>648</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>409</v>
@@ -11242,6 +11941,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
+    <sheetView showGridLines="0" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
